--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="222">
   <si>
     <t>Patient Care</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>In progress</t>
-  </si>
-  <si>
-    <t>In progress?</t>
   </si>
   <si>
     <t>Complete</t>
@@ -840,15 +837,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -869,13 +857,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1180,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,13 +1205,13 @@
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>49</v>
@@ -1223,7 +1220,7 @@
         <v>161</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -1250,7 +1247,7 @@
         <v>162</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -1267,17 +1264,17 @@
         <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>84</v>
@@ -1288,24 +1285,24 @@
         <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,7 +1324,7 @@
         <v>163</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>52</v>
@@ -1344,16 +1341,18 @@
         <v>22</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,11 +1395,13 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>165</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1429,10 +1430,10 @@
         <v>163</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1450,7 +1451,7 @@
       <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="2"/>
@@ -1473,7 +1474,7 @@
       <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="2"/>
@@ -1496,7 +1497,7 @@
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="2"/>
@@ -1524,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>8</v>
@@ -1544,11 +1545,13 @@
         <v>138</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2"/>
@@ -1571,7 +1574,7 @@
       <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="2"/>
@@ -1594,7 +1597,7 @@
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="2"/>
@@ -1617,7 +1620,7 @@
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="2"/>
@@ -1638,11 +1641,13 @@
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="2"/>
@@ -1671,7 +1676,7 @@
         <v>163</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>73</v>
@@ -1692,12 +1697,12 @@
       <c r="F20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,7 +1726,7 @@
         <v>164</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>72</v>
@@ -1738,7 +1743,9 @@
         <v>1</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1746,7 +1753,7 @@
         <v>164</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>72</v>
@@ -1767,7 +1774,7 @@
       <c r="F23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="2"/>
@@ -1790,7 +1797,7 @@
       <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="2"/>
@@ -1813,7 +1820,7 @@
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="2"/>
@@ -1836,7 +1843,7 @@
       <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="2"/>
@@ -1845,28 +1852,28 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -2213,49 +2220,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2269,10 +2276,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
@@ -2281,15 +2288,15 @@
         <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
         <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>127</v>
@@ -2303,10 +2310,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
@@ -2320,10 +2327,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
@@ -2337,7 +2344,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -2349,15 +2356,15 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
@@ -2371,10 +2378,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -2388,10 +2395,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>127</v>
@@ -2402,10 +2409,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
@@ -2419,10 +2426,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
         <v>198</v>
-      </c>
-      <c r="B13" t="s">
-        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -2433,10 +2440,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -2450,9 +2457,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C15" t="s">
@@ -2465,14 +2472,14 @@
         <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C16" t="s">
@@ -2482,14 +2489,14 @@
         <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
@@ -2499,12 +2506,12 @@
         <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>111</v>
@@ -2519,15 +2526,15 @@
         <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>209</v>
+        <v>182</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
@@ -2536,15 +2543,15 @@
         <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
@@ -2556,14 +2563,14 @@
         <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C21" t="s">
@@ -2573,14 +2580,14 @@
         <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C22" t="s">
@@ -2590,14 +2597,14 @@
         <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>151</v>
       </c>
       <c r="C23" t="s">
@@ -2607,12 +2614,12 @@
         <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
         <v>153</v>
@@ -2627,12 +2634,12 @@
         <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>148</v>
@@ -2647,12 +2654,12 @@
         <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
@@ -2660,19 +2667,19 @@
       <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="16" t="s">
         <v>157</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -2684,12 +2691,12 @@
         <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -2697,22 +2704,22 @@
       <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="16" t="s">
         <v>154</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -2721,15 +2728,15 @@
         <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
@@ -2738,15 +2745,15 @@
         <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
         <v>101</v>
@@ -2755,12 +2762,12 @@
         <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -2772,12 +2779,12 @@
         <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>124</v>
@@ -2786,20 +2793,20 @@
         <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
         <v>125</v>
       </c>
       <c r="H33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>159</v>
       </c>
       <c r="C34" t="s">
@@ -2812,14 +2819,14 @@
         <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C35" t="s">
@@ -2829,14 +2836,14 @@
         <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C36" t="s">
@@ -2846,12 +2853,12 @@
         <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>114</v>
@@ -2863,15 +2870,15 @@
         <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>214</v>
+        <v>192</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
@@ -2886,14 +2893,14 @@
         <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>146</v>
       </c>
       <c r="C39" t="s">
@@ -2903,14 +2910,14 @@
         <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
@@ -2930,7 +2937,7 @@
       <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C41" t="s">
@@ -2950,7 +2957,7 @@
       <c r="A42" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C42" t="s">
@@ -2963,14 +2970,14 @@
         <v>92</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C43" t="s">
@@ -2990,7 +2997,7 @@
       <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C44" t="s">
@@ -3010,47 +3017,47 @@
       <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>210</v>
+      <c r="B45" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="C45" t="s">
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>211</v>
+      <c r="B46" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="C46" t="s">
         <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
         <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C47" t="s">
@@ -3070,8 +3077,8 @@
       <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>213</v>
+      <c r="B48" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="C48" t="s">
         <v>127</v>
@@ -3080,20 +3087,20 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
         <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>105</v>
       </c>
       <c r="C49" t="s">
@@ -3108,7 +3115,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>122</v>
@@ -3120,7 +3127,7 @@
         <v>123</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3137,14 +3144,14 @@
         <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C52" t="s">
@@ -3154,7 +3161,7 @@
         <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3171,7 +3178,7 @@
         <v>97</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3188,27 +3195,27 @@
         <v>97</v>
       </c>
       <c r="H54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G55" t="s">
         <v>97</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3267,12 +3274,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -3287,7 +3294,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="-15" windowWidth="16245" windowHeight="12015"/>
+    <workbookView xWindow="3060" yWindow="260" windowWidth="24080" windowHeight="18600"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
   <si>
     <t>Patient Care</t>
   </si>
@@ -42,9 +47,6 @@
     <t>Patient Safety</t>
   </si>
   <si>
-    <t>Loraine</t>
-  </si>
-  <si>
     <t>Hugh</t>
   </si>
   <si>
@@ -540,9 +542,6 @@
     <t>Paul Knapp</t>
   </si>
   <si>
-    <t>Loraine?</t>
-  </si>
-  <si>
     <t>Consulted on ImagingObservation.  Conduit to DICOM participation</t>
   </si>
   <si>
@@ -688,6 +687,12 @@
   </si>
   <si>
     <t>Group Lead</t>
+  </si>
+  <si>
+    <t>Lorraine</t>
+  </si>
+  <si>
+    <t>Lorraine?</t>
   </si>
 </sst>
 </file>
@@ -756,29 +761,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,23 +791,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,215 +1181,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="63.1640625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
@@ -1393,378 +1398,384 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
@@ -1772,86 +1783,86 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1862,9 +1873,9 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1875,13 +1886,13 @@
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28">
       <c r="A29" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1889,16 +1900,16 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28">
       <c r="A30" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1906,16 +1917,16 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1923,16 +1934,16 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28">
       <c r="A32" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1940,16 +1951,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1957,16 +1968,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1974,16 +1985,16 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1991,12 +2002,12 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
@@ -2008,16 +2019,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28">
       <c r="A37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2025,16 +2036,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2042,16 +2053,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2059,16 +2070,16 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2076,16 +2087,16 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2093,16 +2104,16 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2110,16 +2121,16 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2127,16 +2138,16 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2144,16 +2155,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2161,16 +2172,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2178,7 +2189,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2203,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2207,21 +2223,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2231,991 +2247,991 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="H2" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="B49" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
         <v>103</v>
       </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
         <v>101</v>
       </c>
-      <c r="G31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>214</v>
-      </c>
-      <c r="G46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="G50" t="s">
         <v>122</v>
       </c>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" t="s">
-        <v>123</v>
-      </c>
       <c r="H50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3234,6 +3250,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3242,59 +3263,59 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3302,5 +3323,10 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="260" windowWidth="24080" windowHeight="18600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="222">
   <si>
     <t>Patient Care</t>
   </si>
@@ -1185,7 +1185,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1271,7 +1271,9 @@
       <c r="D3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>175</v>
       </c>
@@ -1345,7 +1347,9 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1377,9 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1454,7 +1460,9 @@
         <v>141</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
@@ -1502,7 +1510,9 @@
         <v>139</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
@@ -1604,7 +1614,9 @@
         <v>136</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
@@ -1781,7 +1793,9 @@
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
@@ -1803,7 +1817,9 @@
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>75</v>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$26</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="225">
   <si>
     <t>Patient Care</t>
   </si>
@@ -693,6 +693,15 @@
   </si>
   <si>
     <t>Lorraine?</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Medications</t>
   </si>
 </sst>
 </file>
@@ -1185,24 +1194,24 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="63.1640625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="7"/>
+    <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1889,7 +1898,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
@@ -1902,7 +1911,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" ht="28">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>11</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>40</v>
       </c>
@@ -2236,22 +2245,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
@@ -2263,7 +2272,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>159</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -2561,7 +2570,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>190</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -2746,7 +2755,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -2834,35 +2843,32 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>190</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
         <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>190</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
         <v>96</v>
@@ -2871,12 +2877,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>112</v>
+      <c r="B36" t="s">
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>111</v>
@@ -2885,78 +2891,78 @@
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
+        <v>188</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
         <v>91</v>
@@ -2965,58 +2971,58 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
         <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
         <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
         <v>91</v>
@@ -3025,229 +3031,232 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" t="s">
-        <v>212</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>208</v>
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>97</v>
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" t="s">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>104</v>
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
+        <v>224</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
       <c r="G51" t="s">
         <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>118</v>
+        <v>223</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3282,54 +3291,54 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15870"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="226">
   <si>
     <t>Patient Care</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Medications</t>
+  </si>
+  <si>
+    <t>Involved in providing website support/facilities, listserv support, etc</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1194,10 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1447,9 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>76</v>
       </c>
@@ -1725,7 +1730,9 @@
         <v>31</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>75</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
@@ -2157,13 +2164,15 @@
       <c r="C43" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="226">
   <si>
     <t>Patient Care</t>
   </si>
@@ -1197,7 +1197,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,9 @@
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>75</v>
       </c>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -13,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Work Groups'!$A$1:$I$28</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
-    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$26</definedName>
+    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="230">
   <si>
     <t>Patient Care</t>
   </si>
@@ -705,6 +705,18 @@
   </si>
   <si>
     <t>Involved in providing website support/facilities, listserv support, etc</t>
+  </si>
+  <si>
+    <t>Mobile Health</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Interested in FHIR for mobile purposes, not sure if they'll be developing</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
 </sst>
 </file>
@@ -743,7 +755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,6 +907,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,20 +1212,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
@@ -1215,14 +1236,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
+      <c r="A1" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>178</v>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>50</v>
@@ -1244,126 +1265,130 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
+      <c r="A2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>175</v>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>52</v>
+      <c r="A4" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
-        <v>175</v>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
+      <c r="A5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
+      <c r="A6" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>229</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>220</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>75</v>
@@ -1373,107 +1398,107 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>76</v>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
+      <c r="A8" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>164</v>
+      <c r="G8" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1483,26 +1508,28 @@
       <c r="G10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
+      <c r="A11" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>220</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>75</v>
@@ -1512,22 +1539,24 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="6" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
@@ -1537,53 +1566,51 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
+      <c r="A14" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>75</v>
@@ -1593,226 +1620,252 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
+      <c r="A16" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>162</v>
+      <c r="G19" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
+      <c r="A20" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
+      <c r="A22" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>10</v>
+      <c r="A23" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
@@ -1822,23 +1875,25 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
+      <c r="A24" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
+        <v>134</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1847,21 +1902,25 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
+      <c r="A25" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1870,21 +1929,25 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>215</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1893,74 +1956,94 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1968,16 +2051,16 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1989,12 +2072,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2002,16 +2085,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2019,16 +2102,16 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2036,16 +2119,16 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2053,16 +2136,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2070,16 +2153,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
+      <c r="A38" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
-        <v>26</v>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2087,33 +2170,37 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="C39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2121,16 +2208,16 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2138,16 +2225,16 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2155,35 +2242,33 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>40</v>
+      <c r="A43" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="C43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>40</v>
+      <c r="A44" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
-        <v>35</v>
+      <c r="C44" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2191,16 +2276,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2212,12 +2297,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2228,13 +2313,31 @@
         <v>55</v>
       </c>
     </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I26"/>
-  <mergeCells count="1">
-    <mergeCell ref="A28:I28"/>
-  </mergeCells>
+  <autoFilter ref="A1:I28">
+    <sortState ref="A2:I28">
+      <sortCondition ref="A1:A28"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:E46 D2:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E29 D31:E47">
       <formula1>Members</formula1>
     </dataValidation>
   </dataValidations>
@@ -2256,7 +2359,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -692,9 +692,6 @@
     <t>Lorraine</t>
   </si>
   <si>
-    <t>Lorraine?</t>
-  </si>
-  <si>
     <t>Foundation</t>
   </si>
   <si>
@@ -717,6 +714,9 @@
   </si>
   <si>
     <t>ES</t>
+  </si>
+  <si>
+    <t>Lorraine Constable/Patrick Loyd</t>
   </si>
 </sst>
 </file>
@@ -905,11 +905,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1218,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1274,10 @@
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1306,7 +1306,7 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1330,10 +1330,10 @@
       <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1360,7 +1360,7 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>40</v>
@@ -1387,7 +1387,7 @@
       <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1443,7 +1443,7 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1528,7 +1528,7 @@
       <c r="D11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1582,7 +1582,7 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1598,10 +1598,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>163</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>71</v>
@@ -1694,7 +1694,7 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1807,10 +1807,10 @@
       <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1861,10 +1861,10 @@
       <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1891,7 +1891,7 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1918,7 +1918,7 @@
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1942,10 +1942,10 @@
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>215</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1969,10 +1969,10 @@
       <c r="C27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1986,7 +1986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +2342,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2375,16 +2375,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -3027,7 +3027,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>90</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>158</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>93</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>207</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>208</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>97</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>211</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>116</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
         <v>118</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>119</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>95</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>157</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>94</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>210</v>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -710,13 +710,13 @@
     <t>MH</t>
   </si>
   <si>
-    <t>Interested in FHIR for mobile purposes, not sure if they'll be developing</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
     <t>Lorraine Constable/Patrick Loyd</t>
+  </si>
+  <si>
+    <t>Aim to create a conformance specification for standardization of interface between mobile devices and Electronic Health Records (EHR)/ Personal Health Records (PHR) systems.  Starting 2013/Jan</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1215,10 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>40</v>
@@ -1596,7 +1596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>225</v>
       </c>
@@ -1620,10 +1620,10 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>138</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>163</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>71</v>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="231">
   <si>
     <t>Patient Care</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Near term resource development potential</t>
   </si>
   <si>
-    <t>Not likely involved (governance structure)</t>
-  </si>
-  <si>
     <t>May eventually be interested in FHIR for curly brackets potential</t>
   </si>
   <si>
@@ -717,6 +714,12 @@
   </si>
   <si>
     <t>Aim to create a conformance specification for standardization of interface between mobile devices and Electronic Health Records (EHR)/ Personal Health Records (PHR) systems.  Starting 2013/Jan</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Not likely involved (governance structure) - but may use as a source for Requirements</t>
   </si>
 </sst>
 </file>
@@ -1215,29 +1218,29 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="7"/>
+    <col min="7" max="7" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="63.1640625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>49</v>
@@ -1249,27 +1252,27 @@
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -1278,27 +1281,27 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -1310,44 +1313,44 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1361,52 +1364,52 @@
         <v>8</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>52</v>
@@ -1421,21 +1424,21 @@
         <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -1450,21 +1453,21 @@
         <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -1476,78 +1479,78 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -1559,22 +1562,22 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -1586,22 +1589,22 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -1613,22 +1616,22 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1643,27 +1646,27 @@
         <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1672,21 +1675,21 @@
         <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -1701,21 +1704,21 @@
         <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>11</v>
@@ -1727,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -1759,21 +1762,21 @@
         <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -1782,22 +1785,22 @@
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1811,25 +1814,25 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>12</v>
@@ -1841,17 +1844,17 @@
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1862,28 +1865,28 @@
         <v>12</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
@@ -1895,17 +1898,17 @@
         <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1922,17 +1925,17 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1946,20 +1949,20 @@
         <v>9</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -1970,28 +1973,28 @@
         <v>40</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -2003,17 +2006,17 @@
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2024,7 +2027,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="20" t="s">
@@ -2037,7 +2040,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28">
       <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
@@ -2051,10 +2054,10 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28">
       <c r="A32" s="9" t="s">
         <v>14</v>
       </c>
@@ -2068,10 +2071,10 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -2085,10 +2088,10 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28">
       <c r="A34" s="9" t="s">
         <v>16</v>
       </c>
@@ -2102,10 +2105,10 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28">
       <c r="A35" s="9" t="s">
         <v>18</v>
       </c>
@@ -2113,16 +2116,18 @@
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
@@ -2136,10 +2141,10 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>20</v>
       </c>
@@ -2153,10 +2158,10 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -2170,10 +2175,10 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28">
       <c r="A39" s="9" t="s">
         <v>22</v>
       </c>
@@ -2194,7 +2199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -2208,10 +2213,10 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -2225,10 +2230,10 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -2242,10 +2247,10 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2259,10 +2264,10 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>30</v>
       </c>
@@ -2270,16 +2275,20 @@
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>35</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
         <v>37</v>
       </c>
@@ -2342,7 +2351,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2362,21 +2371,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2386,991 +2395,991 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
         <v>204</v>
       </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
         <v>201</v>
       </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>202</v>
-      </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
         <v>195</v>
       </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>194</v>
       </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>197</v>
       </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
       <c r="H17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="H21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
         <v>105</v>
       </c>
-      <c r="G19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="H22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
         <v>105</v>
       </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
       <c r="H23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
         <v>182</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
         <v>185</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>91</v>
       </c>
-      <c r="H38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" t="s">
         <v>91</v>
       </c>
-      <c r="H40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
         <v>91</v>
       </c>
-      <c r="H43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
         <v>121</v>
       </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" t="s">
-        <v>122</v>
-      </c>
       <c r="H46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
       </c>
       <c r="G52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s">
         <v>91</v>
       </c>
-      <c r="H52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
         <v>91</v>
       </c>
-      <c r="H53" t="s">
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>222</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3405,56 +3414,56 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$28</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="230">
   <si>
     <t>Patient Care</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Consulted</t>
   </si>
   <si>
-    <t>Developing?</t>
-  </si>
-  <si>
     <t>Interested in Profile and Conformance resources</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>Substance</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
     <t>DICOM</t>
   </si>
   <si>
-    <t>Consulted?</t>
-  </si>
-  <si>
     <t>Interested in ImagingObservation</t>
   </si>
   <si>
@@ -720,6 +711,12 @@
   </si>
   <si>
     <t>Not likely involved (governance structure) - but may use as a source for Requirements</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Was Agent</t>
   </si>
 </sst>
 </file>
@@ -779,7 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,11 +905,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,30 +1214,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="63.1640625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="7"/>
+    <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>49</v>
@@ -1252,64 +1249,64 @@
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>75</v>
+      <c r="E2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1320,23 +1317,23 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1347,10 +1344,10 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1360,11 +1357,11 @@
       <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>214</v>
+      <c r="E5" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>74</v>
@@ -1377,21 +1374,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>214</v>
+      <c r="D6" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>74</v>
@@ -1401,81 +1398,81 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1486,23 +1483,23 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1511,28 +1508,28 @@
       <c r="G10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>165</v>
+      <c r="H10" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>214</v>
+      <c r="D11" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>74</v>
@@ -1542,23 +1539,23 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1569,23 +1566,23 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1596,23 +1593,23 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="42">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1623,117 +1620,117 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="42">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>174</v>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>43</v>
@@ -1742,7 +1739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -1752,17 +1749,17 @@
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>6</v>
@@ -1771,36 +1768,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>219</v>
+      <c r="E20" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1810,11 +1807,11 @@
       <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>219</v>
+      <c r="E21" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>74</v>
@@ -1827,20 +1824,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1851,10 +1848,10 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1864,10 +1861,10 @@
       <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1878,23 +1875,23 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1905,10 +1902,10 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1918,10 +1915,10 @@
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1935,7 +1932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1945,11 +1942,11 @@
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>214</v>
+      <c r="E26" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>74</v>
@@ -1962,7 +1959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -1972,10 +1969,10 @@
       <c r="C27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1989,12 +1986,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -2016,7 +2013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2027,7 +2024,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="20" t="s">
@@ -2040,7 +2037,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" ht="28">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>18</v>
       </c>
@@ -2124,10 +2121,10 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>20</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>22</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>29</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>35</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>37</v>
       </c>
@@ -2364,1022 +2361,1049 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="28">
-      <c r="A2" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>199</v>
       </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
         <v>194</v>
       </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
       <c r="H17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
         <v>104</v>
       </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="H21" t="s">
         <v>205</v>
       </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="G19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
         <v>104</v>
       </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
       </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
       </c>
       <c r="H28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="B38" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="B39" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="B40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="B41" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="D41" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
       </c>
       <c r="H41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
         <v>90</v>
       </c>
-      <c r="H43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
         <v>120</v>
       </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>121</v>
-      </c>
       <c r="H46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
       </c>
       <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
         <v>90</v>
       </c>
-      <c r="H52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s">
         <v>90</v>
       </c>
-      <c r="H53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
         <v>209</v>
       </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>212</v>
-      </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3414,56 +3438,56 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Work Groups'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
-    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$28</definedName>
+    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="252">
   <si>
     <t>Patient Care</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Health Care Devices</t>
   </si>
   <si>
-    <t>Regulated Clinical Research Information Management (RCRIM)</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
@@ -110,18 +107,12 @@
     <t>Arden Syntax</t>
   </si>
   <si>
-    <t>Clinical Context Object Workgroup (CCOW)</t>
-  </si>
-  <si>
     <t>Clinical Decision Support</t>
   </si>
   <si>
     <t>Clinical Statement</t>
   </si>
   <si>
-    <t>Electronic Health Record (EHR)</t>
-  </si>
-  <si>
     <t>Imaging Integration</t>
   </si>
   <si>
@@ -305,12 +296,6 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
     <t>CCDA</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
     <t>MedicationStatement</t>
   </si>
   <si>
-    <t>Prescription</t>
-  </si>
-  <si>
     <t>Immunization</t>
   </si>
   <si>
@@ -488,9 +470,6 @@
     <t>AdverseReaction</t>
   </si>
   <si>
-    <t>Merge w/ Allergy?</t>
-  </si>
-  <si>
     <t>IssueReport</t>
   </si>
   <si>
@@ -569,9 +548,6 @@
     <t>Need better name</t>
   </si>
   <si>
-    <t>ImagingObservation</t>
-  </si>
-  <si>
     <t>FamilyHistory</t>
   </si>
   <si>
@@ -647,12 +623,6 @@
     <t>1st ballot</t>
   </si>
   <si>
-    <t>XdsEntry</t>
-  </si>
-  <si>
-    <t>XdsFolder</t>
-  </si>
-  <si>
     <t>Security, IHE</t>
   </si>
   <si>
@@ -717,6 +687,102 @@
   </si>
   <si>
     <t>Was Agent</t>
+  </si>
+  <si>
+    <t>CIMI</t>
+  </si>
+  <si>
+    <t>Clinical Information Modeling Initiative</t>
+  </si>
+  <si>
+    <t>Non-medication - Lloyd to review</t>
+  </si>
+  <si>
+    <t>Figure out better name</t>
+  </si>
+  <si>
+    <t>Was XdsFolder</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Was XdsEntry</t>
+  </si>
+  <si>
+    <t>Was Document</t>
+  </si>
+  <si>
+    <t>DocumentRoot</t>
+  </si>
+  <si>
+    <t>MessageRoot</t>
+  </si>
+  <si>
+    <t>Was Message</t>
+  </si>
+  <si>
+    <t>Was Prescription</t>
+  </si>
+  <si>
+    <t>OrderRequest</t>
+  </si>
+  <si>
+    <t>OrderResponse</t>
+  </si>
+  <si>
+    <t>Ewout</t>
+  </si>
+  <si>
+    <t>Ewout Merge w/ Allergy?</t>
+  </si>
+  <si>
+    <t>Imaging[TBD]</t>
+  </si>
+  <si>
+    <t>DeviceManifest</t>
+  </si>
+  <si>
+    <t>DeviceEvent</t>
+  </si>
+  <si>
+    <t>DeviceObservations</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>EHR</t>
+  </si>
+  <si>
+    <t>Electronic Health Record</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>RCRIM</t>
+  </si>
+  <si>
+    <t>Regulated Clinical Research Information Management</t>
+  </si>
+  <si>
+    <t>CCOW</t>
+  </si>
+  <si>
+    <t>Clinical Context Object Workgroup</t>
+  </si>
+  <si>
+    <t>CBCC</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Arden</t>
   </si>
 </sst>
 </file>
@@ -755,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,12 +977,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,13 +1285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,896 +1310,922 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="E3" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>211</v>
+      <c r="E5" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>211</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="23" t="s">
+        <v>201</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="6" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>163</v>
+        <v>44</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>211</v>
+      <c r="D11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="I11" s="6" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="I13" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>8</v>
+      <c r="D14" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>9</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>224</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>9</v>
+      <c r="E17" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>159</v>
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>216</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>216</v>
+      <c r="E21" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>6</v>
       </c>
+      <c r="E22" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="I23" s="6" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>211</v>
+      <c r="D26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
+      <c r="D28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
@@ -2138,12 +2237,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -2155,12 +2254,12 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
@@ -2175,34 +2274,34 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="C40" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2210,16 +2309,18 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2232,9 +2333,11 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
       </c>
@@ -2244,14 +2347,16 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
       </c>
@@ -2261,37 +2366,33 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2299,16 +2400,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2316,16 +2417,16 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2333,17 +2434,34 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28">
+  <autoFilter ref="A1:I32">
     <sortState ref="A2:I28">
       <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E29 D31:E47">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E33 D35:E41 D42:E48">
       <formula1>Members</formula1>
     </dataValidation>
   </dataValidations>
@@ -2359,13 +2477,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,1038 +2495,1155 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
+        <v>94</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="H32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>110</v>
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
         <v>89</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
+        <v>207</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>219</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
+        <v>207</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" t="s">
-        <v>115</v>
+        <v>207</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" t="s">
-        <v>116</v>
+        <v>177</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>117</v>
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>93</v>
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>92</v>
+        <v>209</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>209</v>
       </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s">
-        <v>205</v>
+      <c r="B56" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H55">
+  <autoFilter ref="A2:H60">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1st ballot"/>
+        <filter val="Draft"/>
+        <filter val="Proposed"/>
+        <filter val="Semi-stable"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:H55">
       <sortCondition ref="A3:A55"/>
       <sortCondition ref="B3:B55"/>
@@ -3417,7 +3653,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C55">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C60">
       <formula1>WorkGroups</formula1>
     </dataValidation>
   </dataValidations>
@@ -3442,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3462,17 +3698,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -3482,12 +3718,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -980,10 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1291,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -2460,7 +2460,7 @@
       <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E33 D35:E41 D42:E48">
       <formula1>Members</formula1>
     </dataValidation>
@@ -2500,16 +2500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2933,7 +2933,7 @@
       <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>222</v>
       </c>
       <c r="G25" t="s">
@@ -3113,7 +3113,7 @@
       <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>223</v>
       </c>
       <c r="G34" t="s">

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="253">
   <si>
     <t>Patient Care</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>Arden</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1294,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,8 +1350,12 @@
       <c r="C2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="23" t="s">
         <v>71</v>
       </c>
@@ -1400,7 +1407,9 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
@@ -1817,8 +1826,8 @@
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>153</v>
+      <c r="G19" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>214</v>
@@ -1986,7 +1995,9 @@
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Work Groups'!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="268">
   <si>
     <t>Patient Care</t>
   </si>
@@ -786,13 +786,58 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Content Sources</t>
+  </si>
+  <si>
+    <t>Example uses</t>
+  </si>
+  <si>
+    <t>Search Criteria</t>
+  </si>
+  <si>
+    <t>Core elements</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Element definitions</t>
+  </si>
+  <si>
+    <t>Bindings</t>
+  </si>
+  <si>
+    <t>Requirements &amp; Usage</t>
+  </si>
+  <si>
+    <t>Value Sets / Code Lists</t>
+  </si>
+  <si>
+    <t>Invariants</t>
+  </si>
+  <si>
+    <t>HTML files</t>
+  </si>
+  <si>
+    <t>Mappings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,8 +868,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +904,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,11 +1045,154 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1288,13 +1489,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>221</v>
       </c>
@@ -1394,7 +1596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1623,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>133</v>
       </c>
@@ -1448,7 +1650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>164</v>
       </c>
@@ -1475,7 +1677,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1731,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>242</v>
       </c>
@@ -1614,7 +1816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1641,7 +1843,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1697,7 +1899,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>132</v>
       </c>
@@ -1724,7 +1926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>131</v>
       </c>
@@ -1751,7 +1953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>211</v>
       </c>
@@ -1865,7 +2067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +2154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1979,7 +2181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>245</v>
       </c>
@@ -2004,7 +2206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
@@ -2031,7 +2233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>128</v>
       </c>
@@ -2085,7 +2287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -2139,7 +2341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
@@ -2166,7 +2368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>24</v>
       </c>
@@ -2467,6 +2669,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I32">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Developing"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I28">
       <sortCondition ref="A1:A28"/>
     </sortState>
@@ -2489,13 +2696,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,9 +2715,17 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
@@ -2521,8 +2736,16 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" s="30">
+        <f ca="1">TODAY()</f>
+        <v>41330</v>
+      </c>
+      <c r="J1" s="30">
+        <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
+        <v>41299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>149</v>
       </c>
@@ -2547,47 +2770,176 @@
       <c r="H2" s="19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I2" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29">
+        <v>41334</v>
+      </c>
+      <c r="J3" s="29">
+        <v>41334</v>
+      </c>
+      <c r="K3" s="29">
+        <v>41334</v>
+      </c>
+      <c r="L3" s="29">
+        <v>41334</v>
+      </c>
+      <c r="M3" s="29">
+        <v>41365</v>
+      </c>
+      <c r="N3" s="29">
+        <v>41365</v>
+      </c>
+      <c r="O3" s="29">
+        <v>41365</v>
+      </c>
+      <c r="P3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="R3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="S3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="T3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="U3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="V3" s="29">
+        <v>41395</v>
+      </c>
+      <c r="W3" s="29">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29">
+        <v>41365</v>
+      </c>
+      <c r="J4" s="29">
+        <v>41365</v>
+      </c>
+      <c r="K4" s="29">
+        <v>41365</v>
+      </c>
+      <c r="L4" s="29">
+        <v>41365</v>
+      </c>
+      <c r="M4" s="29">
+        <v>41395</v>
+      </c>
+      <c r="N4" s="29">
+        <v>41395</v>
+      </c>
+      <c r="O4" s="29">
+        <v>41395</v>
+      </c>
+      <c r="P4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="R4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="S4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="T4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="U4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="V4" s="29">
+        <v>41456</v>
+      </c>
+      <c r="W4" s="29">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -2599,29 +2951,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>118</v>
@@ -2633,77 +2985,80 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>118</v>
       </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -2715,12 +3070,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -2729,61 +3084,52 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>140</v>
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>141</v>
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,36 +3137,39 @@
         <v>169</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
+      <c r="B18" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
-        <v>104</v>
+      <c r="E18" t="s">
+        <v>218</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2828,19 +3177,16 @@
         <v>169</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,10 +3194,13 @@
         <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
@@ -2865,13 +3214,16 @@
         <v>169</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
         <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="H21" t="s">
         <v>197</v>
@@ -2881,94 +3233,85 @@
       <c r="A22" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>101</v>
+      <c r="B22" t="s">
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="E23" t="s">
-        <v>218</v>
-      </c>
       <c r="G23" t="s">
         <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
-        <v>143</v>
+      <c r="B24" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
-        <v>139</v>
+      <c r="B25" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>222</v>
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>235</v>
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
@@ -2979,19 +3322,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>234</v>
+        <v>94</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
@@ -3000,12 +3340,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
         <v>118</v>
@@ -3014,13 +3354,13 @@
         <v>104</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3028,7 +3368,7 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>118</v>
@@ -3037,7 +3377,7 @@
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
@@ -3046,35 +3386,47 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>204</v>
@@ -3085,7 +3437,7 @@
         <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
         <v>119</v>
@@ -3099,16 +3451,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="H33" t="s">
         <v>204</v>
@@ -3116,19 +3468,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="H34" t="s">
         <v>204</v>
@@ -3139,10 +3488,10 @@
         <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
         <v>89</v>
@@ -3151,52 +3500,49 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>172</v>
+        <v>93</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>117</v>
+      <c r="B37" t="s">
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
         <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>105</v>
+      <c r="B38" t="s">
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -3204,45 +3550,45 @@
       <c r="D38" t="s">
         <v>104</v>
       </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>178</v>
       </c>
-      <c r="B39" t="s">
-        <v>106</v>
+      <c r="B39" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
         <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
@@ -3253,42 +3599,42 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>85</v>
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
         <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3296,19 +3642,19 @@
         <v>207</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3316,19 +3662,19 @@
         <v>207</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
         <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3336,19 +3682,19 @@
         <v>207</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
         <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,19 +3702,19 @@
         <v>207</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,19 +3722,19 @@
         <v>207</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
         <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3396,19 +3742,19 @@
         <v>207</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,16 +3762,13 @@
         <v>207</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
         <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -3436,16 +3779,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
         <v>87</v>
@@ -3453,53 +3799,59 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
+        <v>207</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
+        <v>177</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>109</v>
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3507,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3523,8 +3875,8 @@
       <c r="A55" t="s">
         <v>209</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
+      <c r="B55" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3533,70 +3885,61 @@
         <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>170</v>
+      <c r="B56" t="s">
+        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="E56" t="s">
-        <v>231</v>
-      </c>
       <c r="G56" t="s">
         <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>228</v>
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,16 +3947,16 @@
         <v>208</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
         <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G59" t="s">
         <v>86</v>
@@ -3627,28 +3970,71 @@
         <v>208</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H60">
+  <autoFilter ref="A2:H62">
     <filterColumn colId="7">
-      <filters>
+      <filters blank="1">
         <filter val="1st ballot"/>
         <filter val="Draft"/>
         <filter val="Proposed"/>
@@ -3663,12 +4049,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C60">
+  <conditionalFormatting sqref="I5:W62">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND($J$1&gt;=I$4,OR(I5="",I5="Started",I5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND($J$1&gt;=I$3,OR(I5="",I5="Started"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND($I$1&gt;=I$4,OR(I5="",I5="Started",I5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($I$1&gt;=I$3,OR(I5="",I5="Started"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C62">
       <formula1>WorkGroups</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:W62">
+      <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -320,9 +320,6 @@
     <t>Connectathon</t>
   </si>
   <si>
-    <t>LabReport</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -831,6 +828,9 @@
   </si>
   <si>
     <t>Mappings</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
   </si>
 </sst>
 </file>
@@ -1042,9 +1042,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1054,11 +1051,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1084,111 +1084,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1515,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>46</v>
@@ -1527,16 +1422,16 @@
         <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>43</v>
@@ -1544,10 +1439,10 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>49</v>
@@ -1581,16 +1476,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>48</v>
@@ -1601,7 +1496,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -1620,15 +1515,15 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -1652,16 +1547,16 @@
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>6</v>
@@ -1674,7 +1569,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>71</v>
@@ -1709,16 +1604,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>71</v>
@@ -1728,15 +1623,15 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -1763,7 +1658,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>49</v>
@@ -1778,10 +1673,10 @@
         <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>51</v>
@@ -1807,10 +1702,10 @@
         <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>68</v>
@@ -1821,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>11</v>
@@ -1840,7 +1735,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1854,7 +1749,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>8</v>
@@ -1866,7 +1761,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>78</v>
@@ -1883,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -1896,15 +1791,15 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1928,10 +1823,10 @@
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -1955,10 +1850,10 @@
     </row>
     <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -1977,15 +1872,15 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -2000,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>7</v>
@@ -2020,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>9</v>
@@ -2029,10 +1924,10 @@
         <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>67</v>
@@ -2043,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -2058,10 +1953,10 @@
         <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>67</v>
@@ -2072,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>11</v>
@@ -2116,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>6</v>
@@ -2127,10 +2022,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
@@ -2139,19 +2034,19 @@
         <v>40</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>71</v>
@@ -2183,10 +2078,10 @@
     </row>
     <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -2198,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2208,10 +2103,10 @@
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
@@ -2244,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -2262,10 +2157,10 @@
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -2328,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>71</v>
@@ -2352,7 +2247,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>7</v>
@@ -2373,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
@@ -2492,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
@@ -2511,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
@@ -2530,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -2549,7 +2444,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
@@ -2565,10 +2460,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
@@ -2699,10 +2594,10 @@
   <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,47 +2617,47 @@
     <col min="20" max="20" width="10.7109375" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="26"/>
+    <col min="24" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="30">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29">
         <f ca="1">TODAY()</f>
-        <v>41330</v>
-      </c>
-      <c r="J1" s="30">
+        <v>41351</v>
+      </c>
+      <c r="J1" s="29">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
-        <v>41299</v>
+        <v>41323</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>83</v>
@@ -2771,181 +2666,181 @@
         <v>84</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="W2" s="18" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29">
+      <c r="B3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28">
         <v>41334</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>41334</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>41334</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>41334</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>41365</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>41365</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>41365</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>41395</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>41395</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>41395</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="28">
         <v>41395</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>41395</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="28">
         <v>41395</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>41395</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="28">
         <v>41395</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29">
+      <c r="B4" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28">
         <v>41365</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>41365</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>41365</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="28">
         <v>41365</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>41395</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="28">
         <v>41395</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="28">
         <v>41395</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <v>41456</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="28">
         <v>41456</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="28">
         <v>41456</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="28">
         <v>41456</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="28">
         <v>41456</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="28">
         <v>41456</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="28">
         <v>41456</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="28">
         <v>41456</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
@@ -2953,33 +2848,33 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
         <v>87</v>
@@ -2987,16 +2882,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
@@ -3004,16 +2899,16 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
@@ -3021,33 +2916,33 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
@@ -3055,16 +2950,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
         <v>87</v>
@@ -3072,13 +2967,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
         <v>87</v>
@@ -3086,16 +2981,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
@@ -3103,13 +2998,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
         <v>87</v>
@@ -3117,16 +3012,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
         <v>87</v>
@@ -3134,47 +3029,47 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" t="s">
-        <v>99</v>
-      </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>95</v>
@@ -3186,241 +3081,241 @@
         <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
         <v>98</v>
       </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
         <v>98</v>
       </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
         <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -3429,66 +3324,66 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
         <v>239</v>
       </c>
-      <c r="C32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>240</v>
-      </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
@@ -3497,75 +3392,75 @@
         <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
         <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
         <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
       <c r="H38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>94</v>
@@ -3574,41 +3469,41 @@
         <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -3617,15 +3512,15 @@
         <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
         <v>92</v>
@@ -3634,21 +3529,21 @@
         <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -3659,33 +3554,33 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
         <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>94</v>
@@ -3694,18 +3589,18 @@
         <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>94</v>
@@ -3714,21 +3609,21 @@
         <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -3739,56 +3634,56 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -3799,33 +3694,33 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
@@ -3839,27 +3734,27 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
         <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3868,15 +3763,15 @@
         <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3885,15 +3780,15 @@
         <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -3902,15 +3797,15 @@
         <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3919,44 +3814,44 @@
         <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G58" t="s">
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G59" t="s">
         <v>86</v>
@@ -3967,39 +3862,39 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G60" t="s">
         <v>86</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
         <v>229</v>
-      </c>
-      <c r="C61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>230</v>
       </c>
       <c r="G61" t="s">
         <v>86</v>
@@ -4010,25 +3905,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4118,12 +4013,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -4133,12 +4028,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="8250" yWindow="360" windowWidth="18930" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="271">
   <si>
     <t>Patient Care</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Encounter</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>Procedure</t>
   </si>
   <si>
-    <t>Allergy</t>
-  </si>
-  <si>
     <t>Medication</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>Supply</t>
   </si>
   <si>
-    <t>Provider</t>
-  </si>
-  <si>
     <t>Animal</t>
   </si>
   <si>
@@ -623,9 +614,6 @@
     <t>Security, IHE</t>
   </si>
   <si>
-    <t>IndexEntry</t>
-  </si>
-  <si>
     <t>Referenced by?</t>
   </si>
   <si>
@@ -683,9 +671,6 @@
     <t>Dropped</t>
   </si>
   <si>
-    <t>Was Agent</t>
-  </si>
-  <si>
     <t>CIMI</t>
   </si>
   <si>
@@ -695,18 +680,12 @@
     <t>Non-medication - Lloyd to review</t>
   </si>
   <si>
-    <t>Figure out better name</t>
-  </si>
-  <si>
     <t>Was XdsFolder</t>
   </si>
   <si>
     <t>Deferred</t>
   </si>
   <si>
-    <t>Was XdsEntry</t>
-  </si>
-  <si>
     <t>Was Document</t>
   </si>
   <si>
@@ -722,30 +701,12 @@
     <t>Was Prescription</t>
   </si>
   <si>
-    <t>OrderRequest</t>
-  </si>
-  <si>
     <t>OrderResponse</t>
   </si>
   <si>
     <t>Ewout</t>
   </si>
   <si>
-    <t>Ewout Merge w/ Allergy?</t>
-  </si>
-  <si>
-    <t>Imaging[TBD]</t>
-  </si>
-  <si>
-    <t>DeviceManifest</t>
-  </si>
-  <si>
-    <t>DeviceEvent</t>
-  </si>
-  <si>
-    <t>DeviceObservations</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -831,6 +792,54 @@
   </si>
   <si>
     <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t>Practioner</t>
+  </si>
+  <si>
+    <t>Was Agent, Provider</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>DeviceObservation</t>
+  </si>
+  <si>
+    <t>DeviceCapabilities</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Was XdsEntry, IndexEntry</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Was Encounter</t>
+  </si>
+  <si>
+    <t>ImagingStudy</t>
+  </si>
+  <si>
+    <t>ImmunizationProfile</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Was OrderRequest</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Questionaire</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -876,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +1069,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>46</v>
@@ -1422,16 +1438,16 @@
         <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>43</v>
@@ -1439,10 +1455,10 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>49</v>
@@ -1476,16 +1492,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>48</v>
@@ -1496,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -1515,15 +1531,15 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -1547,16 +1563,16 @@
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>6</v>
@@ -1569,7 +1585,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1586,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>71</v>
@@ -1604,16 +1620,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>71</v>
@@ -1623,15 +1639,15 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -1658,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>49</v>
@@ -1673,10 +1689,10 @@
         <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>51</v>
@@ -1702,10 +1718,10 @@
         <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>68</v>
@@ -1716,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>11</v>
@@ -1735,7 +1751,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1765,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>8</v>
@@ -1761,7 +1777,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>78</v>
@@ -1778,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -1791,15 +1807,15 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1823,10 +1839,10 @@
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -1850,10 +1866,10 @@
     </row>
     <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -1872,15 +1888,15 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -1895,7 +1911,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>7</v>
@@ -1915,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>9</v>
@@ -1924,10 +1940,10 @@
         <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>67</v>
@@ -1953,10 +1969,10 @@
         <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>67</v>
@@ -1967,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>11</v>
@@ -2011,7 +2027,7 @@
         <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>6</v>
@@ -2022,10 +2038,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
@@ -2034,19 +2050,19 @@
         <v>40</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>71</v>
@@ -2078,10 +2094,10 @@
     </row>
     <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -2093,7 +2109,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2103,10 +2119,10 @@
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
@@ -2139,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>9</v>
@@ -2157,10 +2173,10 @@
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -2223,7 +2239,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>71</v>
@@ -2247,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>7</v>
@@ -2268,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
@@ -2387,7 +2403,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
@@ -2406,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
@@ -2425,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -2444,7 +2460,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
@@ -2460,10 +2476,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
@@ -2590,14 +2606,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,31 +2648,31 @@
       <c r="H1" s="30"/>
       <c r="I1" s="29">
         <f ca="1">TODAY()</f>
-        <v>41351</v>
+        <v>41376</v>
       </c>
       <c r="J1" s="29">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
-        <v>41323</v>
+        <v>41345</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>83</v>
@@ -2666,49 +2681,49 @@
         <v>84</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -2716,7 +2731,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -2775,7 +2790,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2831,16 +2846,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
@@ -2848,33 +2863,33 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
         <v>87</v>
@@ -2882,16 +2897,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
@@ -2899,16 +2914,16 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
@@ -2916,33 +2931,33 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
@@ -2950,16 +2965,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
         <v>87</v>
@@ -2967,13 +2982,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
         <v>87</v>
@@ -2981,16 +2996,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
@@ -2998,13 +3013,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>87</v>
@@ -3012,16 +3027,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
         <v>87</v>
@@ -3029,293 +3044,293 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
       <c r="G20" t="s">
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
         <v>193</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
+        <v>165</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
         <v>97</v>
       </c>
+      <c r="E23" t="s">
+        <v>213</v>
+      </c>
       <c r="G23" t="s">
         <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
         <v>97</v>
       </c>
+      <c r="E24" t="s">
+        <v>256</v>
+      </c>
       <c r="G24" t="s">
         <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>141</v>
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" t="s">
-        <v>137</v>
+      <c r="E26" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" t="s">
-        <v>203</v>
+      <c r="H26" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>221</v>
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>263</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -3324,306 +3339,306 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
         <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>222</v>
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
+        <v>174</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
         <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
+        <v>174</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
       </c>
       <c r="G39" t="s">
         <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="H40" t="s">
-        <v>173</v>
+      <c r="H40" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
+        <v>174</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>136</v>
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>85</v>
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>258</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>217</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -3634,178 +3649,187 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>194</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
+        <v>202</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
+        <v>202</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
       </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3813,138 +3837,185 @@
       <c r="G57" t="s">
         <v>89</v>
       </c>
-      <c r="H57" t="s">
-        <v>203</v>
+      <c r="H57" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>230</v>
-      </c>
       <c r="G58" t="s">
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
-      </c>
-      <c r="H59" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>223</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" t="s">
-        <v>196</v>
+        <v>89</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>228</v>
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>219</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H62">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="1st ballot"/>
-        <filter val="Draft"/>
-        <filter val="Proposed"/>
-        <filter val="Semi-stable"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A3:H55">
+  <autoFilter ref="A2:H65">
+    <sortState ref="A3:H62">
       <sortCondition ref="A3:A55"/>
       <sortCondition ref="B3:B55"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A5:W65">
+    <sortCondition ref="A5:A65"/>
+    <sortCondition ref="B5:B65"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:W62">
+  <conditionalFormatting sqref="I5:W65">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$4,OR(I5="",I5="Started",I5="Draft"))</formula>
     </cfRule>
@@ -3959,10 +4030,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C62">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
       <formula1>WorkGroups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:W62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:W65">
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4013,12 +4084,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -4028,12 +4099,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="360" windowWidth="18930" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="8250" yWindow="420" windowWidth="18930" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="271">
   <si>
     <t>Patient Care</t>
   </si>
@@ -1066,15 +1066,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1407,7 +1435,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,9 +1522,7 @@
       <c r="E3" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="5" t="s">
         <v>148</v>
       </c>
@@ -2606,13 +2632,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,23 +2663,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="29">
         <f ca="1">TODAY()</f>
-        <v>41376</v>
+        <v>41379</v>
       </c>
       <c r="J1" s="29">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
-        <v>41345</v>
+        <v>41348</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -2726,7 +2753,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
@@ -2785,7 +2812,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
@@ -2844,7 +2871,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -2860,8 +2887,23 @@
       <c r="H5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -2877,8 +2919,23 @@
       <c r="H6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -2894,8 +2951,23 @@
       <c r="H7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -2911,8 +2983,23 @@
       <c r="H8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -2928,8 +3015,23 @@
       <c r="H9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -2945,8 +3047,23 @@
       <c r="H10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -2962,8 +3079,23 @@
       <c r="H11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2979,8 +3111,23 @@
       <c r="H12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -2993,8 +3140,23 @@
       <c r="H13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -3010,8 +3172,23 @@
       <c r="H14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -3024,8 +3201,23 @@
       <c r="H15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -3041,8 +3233,23 @@
       <c r="H16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -3062,7 +3269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -3079,7 +3286,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -3098,8 +3305,44 @@
       <c r="H19" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" t="s">
+        <v>150</v>
+      </c>
+      <c r="S19" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" t="s">
+        <v>150</v>
+      </c>
+      <c r="V19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -3116,7 +3359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -3133,7 +3376,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -3150,7 +3393,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3170,7 +3413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>165</v>
       </c>
@@ -3190,7 +3433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -3210,7 +3453,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -3226,11 +3469,11 @@
       <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -3253,7 +3496,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -3272,8 +3515,44 @@
       <c r="H28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>170</v>
+      </c>
+      <c r="N28" t="s">
+        <v>170</v>
+      </c>
+      <c r="O28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>170</v>
+      </c>
+      <c r="R28" t="s">
+        <v>170</v>
+      </c>
+      <c r="S28" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" t="s">
+        <v>170</v>
+      </c>
+      <c r="U28" t="s">
+        <v>170</v>
+      </c>
+      <c r="V28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -3295,8 +3574,44 @@
       <c r="H29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" t="s">
+        <v>170</v>
+      </c>
+      <c r="O29" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>170</v>
+      </c>
+      <c r="R29" t="s">
+        <v>170</v>
+      </c>
+      <c r="S29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" t="s">
+        <v>170</v>
+      </c>
+      <c r="V29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -3319,7 +3634,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -3341,8 +3656,44 @@
       <c r="H31" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>170</v>
+      </c>
+      <c r="R31" t="s">
+        <v>170</v>
+      </c>
+      <c r="S31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T31" t="s">
+        <v>170</v>
+      </c>
+      <c r="U31" t="s">
+        <v>170</v>
+      </c>
+      <c r="V31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -3358,11 +3709,47 @@
       <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" t="s">
+        <v>170</v>
+      </c>
+      <c r="P32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>170</v>
+      </c>
+      <c r="R32" t="s">
+        <v>170</v>
+      </c>
+      <c r="S32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" t="s">
+        <v>170</v>
+      </c>
+      <c r="U32" t="s">
+        <v>170</v>
+      </c>
+      <c r="V32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -3379,7 +3766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -3396,7 +3783,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -3413,7 +3800,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3436,7 +3823,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -3453,7 +3840,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -3473,7 +3860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -3492,8 +3879,44 @@
       <c r="H39" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" t="s">
+        <v>150</v>
+      </c>
+      <c r="N39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" t="s">
+        <v>150</v>
+      </c>
+      <c r="P39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>150</v>
+      </c>
+      <c r="R39" t="s">
+        <v>150</v>
+      </c>
+      <c r="S39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T39" t="s">
+        <v>150</v>
+      </c>
+      <c r="U39" t="s">
+        <v>150</v>
+      </c>
+      <c r="V39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3512,11 +3935,47 @@
       <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40" t="s">
+        <v>170</v>
+      </c>
+      <c r="P40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>170</v>
+      </c>
+      <c r="R40" t="s">
+        <v>170</v>
+      </c>
+      <c r="S40" t="s">
+        <v>170</v>
+      </c>
+      <c r="T40" t="s">
+        <v>170</v>
+      </c>
+      <c r="U40" t="s">
+        <v>170</v>
+      </c>
+      <c r="V40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3535,8 +3994,44 @@
       <c r="H41" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>170</v>
+      </c>
+      <c r="N41" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>170</v>
+      </c>
+      <c r="R41" t="s">
+        <v>170</v>
+      </c>
+      <c r="S41" t="s">
+        <v>170</v>
+      </c>
+      <c r="T41" t="s">
+        <v>170</v>
+      </c>
+      <c r="U41" t="s">
+        <v>170</v>
+      </c>
+      <c r="V41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -3553,7 +4048,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -3570,7 +4065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -3587,7 +4082,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -3603,8 +4098,44 @@
       <c r="H45" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" t="s">
+        <v>170</v>
+      </c>
+      <c r="N45" t="s">
+        <v>170</v>
+      </c>
+      <c r="O45" t="s">
+        <v>170</v>
+      </c>
+      <c r="P45" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>170</v>
+      </c>
+      <c r="R45" t="s">
+        <v>170</v>
+      </c>
+      <c r="S45" t="s">
+        <v>170</v>
+      </c>
+      <c r="T45" t="s">
+        <v>170</v>
+      </c>
+      <c r="U45" t="s">
+        <v>170</v>
+      </c>
+      <c r="V45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -3626,8 +4157,44 @@
       <c r="H46" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>150</v>
+      </c>
+      <c r="N46" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46" t="s">
+        <v>150</v>
+      </c>
+      <c r="P46" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>150</v>
+      </c>
+      <c r="R46" t="s">
+        <v>150</v>
+      </c>
+      <c r="S46" t="s">
+        <v>150</v>
+      </c>
+      <c r="T46" t="s">
+        <v>150</v>
+      </c>
+      <c r="U46" t="s">
+        <v>150</v>
+      </c>
+      <c r="V46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -3646,8 +4213,44 @@
       <c r="H47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" t="s">
+        <v>150</v>
+      </c>
+      <c r="N47" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" t="s">
+        <v>150</v>
+      </c>
+      <c r="P47" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>150</v>
+      </c>
+      <c r="R47" t="s">
+        <v>150</v>
+      </c>
+      <c r="S47" t="s">
+        <v>150</v>
+      </c>
+      <c r="T47" t="s">
+        <v>150</v>
+      </c>
+      <c r="U47" t="s">
+        <v>150</v>
+      </c>
+      <c r="V47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -3666,8 +4269,44 @@
       <c r="H48" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N48" t="s">
+        <v>150</v>
+      </c>
+      <c r="O48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>150</v>
+      </c>
+      <c r="R48" t="s">
+        <v>150</v>
+      </c>
+      <c r="S48" t="s">
+        <v>150</v>
+      </c>
+      <c r="T48" t="s">
+        <v>150</v>
+      </c>
+      <c r="U48" t="s">
+        <v>150</v>
+      </c>
+      <c r="V48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -3689,8 +4328,44 @@
       <c r="H49" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" t="s">
+        <v>170</v>
+      </c>
+      <c r="P49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>170</v>
+      </c>
+      <c r="R49" t="s">
+        <v>170</v>
+      </c>
+      <c r="S49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T49" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" t="s">
+        <v>170</v>
+      </c>
+      <c r="V49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -3709,8 +4384,44 @@
       <c r="H50" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" t="s">
+        <v>170</v>
+      </c>
+      <c r="O50" t="s">
+        <v>170</v>
+      </c>
+      <c r="P50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>170</v>
+      </c>
+      <c r="R50" t="s">
+        <v>170</v>
+      </c>
+      <c r="S50" t="s">
+        <v>170</v>
+      </c>
+      <c r="T50" t="s">
+        <v>170</v>
+      </c>
+      <c r="U50" t="s">
+        <v>170</v>
+      </c>
+      <c r="V50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -3729,8 +4440,44 @@
       <c r="H51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" t="s">
+        <v>150</v>
+      </c>
+      <c r="N51" t="s">
+        <v>150</v>
+      </c>
+      <c r="O51" t="s">
+        <v>150</v>
+      </c>
+      <c r="P51" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>150</v>
+      </c>
+      <c r="R51" t="s">
+        <v>150</v>
+      </c>
+      <c r="S51" t="s">
+        <v>150</v>
+      </c>
+      <c r="T51" t="s">
+        <v>150</v>
+      </c>
+      <c r="U51" t="s">
+        <v>150</v>
+      </c>
+      <c r="V51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -3749,8 +4496,44 @@
       <c r="H52" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" t="s">
+        <v>150</v>
+      </c>
+      <c r="N52" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>150</v>
+      </c>
+      <c r="R52" t="s">
+        <v>150</v>
+      </c>
+      <c r="S52" t="s">
+        <v>150</v>
+      </c>
+      <c r="T52" t="s">
+        <v>150</v>
+      </c>
+      <c r="U52" t="s">
+        <v>150</v>
+      </c>
+      <c r="V52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -3769,8 +4552,44 @@
       <c r="H53" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J53" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" t="s">
+        <v>150</v>
+      </c>
+      <c r="N53" t="s">
+        <v>150</v>
+      </c>
+      <c r="O53" t="s">
+        <v>150</v>
+      </c>
+      <c r="P53" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>150</v>
+      </c>
+      <c r="R53" t="s">
+        <v>150</v>
+      </c>
+      <c r="S53" t="s">
+        <v>150</v>
+      </c>
+      <c r="T53" t="s">
+        <v>150</v>
+      </c>
+      <c r="U53" t="s">
+        <v>150</v>
+      </c>
+      <c r="V53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -3789,8 +4608,44 @@
       <c r="H54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" t="s">
+        <v>150</v>
+      </c>
+      <c r="P54" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>150</v>
+      </c>
+      <c r="R54" t="s">
+        <v>150</v>
+      </c>
+      <c r="S54" t="s">
+        <v>150</v>
+      </c>
+      <c r="T54" t="s">
+        <v>150</v>
+      </c>
+      <c r="U54" t="s">
+        <v>150</v>
+      </c>
+      <c r="V54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -3807,7 +4662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -3820,11 +4675,11 @@
       <c r="G56" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -3837,11 +4692,11 @@
       <c r="G57" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -3858,7 +4713,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -3871,11 +4726,11 @@
       <c r="G59" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -3895,7 +4750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -3908,11 +4763,11 @@
       <c r="G61" t="s">
         <v>89</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>203</v>
       </c>
@@ -3934,8 +4789,44 @@
       <c r="H62" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" t="s">
+        <v>150</v>
+      </c>
+      <c r="N62" t="s">
+        <v>150</v>
+      </c>
+      <c r="O62" t="s">
+        <v>150</v>
+      </c>
+      <c r="P62" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>150</v>
+      </c>
+      <c r="R62" t="s">
+        <v>150</v>
+      </c>
+      <c r="S62" t="s">
+        <v>150</v>
+      </c>
+      <c r="T62" t="s">
+        <v>150</v>
+      </c>
+      <c r="U62" t="s">
+        <v>150</v>
+      </c>
+      <c r="V62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -3957,8 +4848,44 @@
       <c r="H63" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" t="s">
+        <v>150</v>
+      </c>
+      <c r="K63" t="s">
+        <v>150</v>
+      </c>
+      <c r="N63" t="s">
+        <v>150</v>
+      </c>
+      <c r="O63" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>150</v>
+      </c>
+      <c r="R63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T63" t="s">
+        <v>150</v>
+      </c>
+      <c r="U63" t="s">
+        <v>150</v>
+      </c>
+      <c r="V63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -3977,8 +4904,44 @@
       <c r="H64" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" t="s">
+        <v>150</v>
+      </c>
+      <c r="K64" t="s">
+        <v>150</v>
+      </c>
+      <c r="N64" t="s">
+        <v>150</v>
+      </c>
+      <c r="O64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P64" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>150</v>
+      </c>
+      <c r="R64" t="s">
+        <v>150</v>
+      </c>
+      <c r="S64" t="s">
+        <v>150</v>
+      </c>
+      <c r="T64" t="s">
+        <v>150</v>
+      </c>
+      <c r="U64" t="s">
+        <v>150</v>
+      </c>
+      <c r="V64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>203</v>
       </c>
@@ -4000,9 +4963,64 @@
       <c r="H65" t="s">
         <v>87</v>
       </c>
+      <c r="I65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" t="s">
+        <v>150</v>
+      </c>
+      <c r="K65" t="s">
+        <v>150</v>
+      </c>
+      <c r="N65" t="s">
+        <v>150</v>
+      </c>
+      <c r="O65" t="s">
+        <v>150</v>
+      </c>
+      <c r="P65" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>150</v>
+      </c>
+      <c r="R65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S65" t="s">
+        <v>150</v>
+      </c>
+      <c r="T65" t="s">
+        <v>150</v>
+      </c>
+      <c r="U65" t="s">
+        <v>150</v>
+      </c>
+      <c r="V65" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H65">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Administrative"/>
+        <filter val="Clinical"/>
+        <filter val="Devices"/>
+        <filter val="Financial"/>
+        <filter val="Foundation"/>
+        <filter val="Laboratory"/>
+        <filter val="Medications"/>
+        <filter val="Technical"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1st ballot"/>
+        <filter val="Draft"/>
+        <filter val="Semi-stable"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:H62">
       <sortCondition ref="A3:A55"/>
       <sortCondition ref="B3:B55"/>
@@ -4015,25 +5033,25 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:W65">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND($J$1&gt;=I$4,OR(I5="",I5="Started",I5="Draft"))</formula>
+  <conditionalFormatting sqref="I17:W65">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>AND($J$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>AND($J$1&gt;=I$3,OR(I5="",I5="Started"))</formula>
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>AND($J$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND($I$1&gt;=I$4,OR(I5="",I5="Started",I5="Draft"))</formula>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($I$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($I$1&gt;=I$3,OR(I5="",I5="Started"))</formula>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND($I$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
       <formula1>WorkGroups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:W65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17:W65">
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -12,7 +12,7 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="272">
   <si>
     <t>Patient Care</t>
   </si>
@@ -840,6 +840,9 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -1074,35 +1077,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -2633,13 +2608,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,11 +2650,11 @@
       <c r="H1" s="31"/>
       <c r="I1" s="29">
         <f ca="1">TODAY()</f>
-        <v>41379</v>
+        <v>41380</v>
       </c>
       <c r="J1" s="29">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
-        <v>41348</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -3279,10 +3254,25 @@
       <c r="C18" t="s">
         <v>94</v>
       </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
       <c r="G18" t="s">
         <v>96</v>
       </c>
       <c r="H18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3446,10 +3436,25 @@
       <c r="E25" t="s">
         <v>135</v>
       </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
       <c r="G25" t="s">
         <v>89</v>
       </c>
       <c r="H25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3833,10 +3838,25 @@
       <c r="C37" t="s">
         <v>94</v>
       </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
       <c r="G37" t="s">
         <v>89</v>
       </c>
       <c r="H37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" t="s">
+        <v>170</v>
+      </c>
+      <c r="L37" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4655,11 +4675,26 @@
       <c r="C55" t="s">
         <v>94</v>
       </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
       <c r="G55" t="s">
         <v>96</v>
       </c>
       <c r="H55" t="s">
         <v>87</v>
+      </c>
+      <c r="I55" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -5000,8 +5035,66 @@
         <v>150</v>
       </c>
     </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" t="s">
+        <v>170</v>
+      </c>
+      <c r="I66" t="s">
+        <v>170</v>
+      </c>
+      <c r="J66" t="s">
+        <v>271</v>
+      </c>
+      <c r="K66" t="s">
+        <v>271</v>
+      </c>
+      <c r="L66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67" t="s">
+        <v>271</v>
+      </c>
+      <c r="L67" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H65">
+  <autoFilter ref="A2:H67">
     <filterColumn colId="0">
       <filters>
         <filter val="Administrative"/>
@@ -5033,17 +5126,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I17:W65">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="I17:W65 I66:L67">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND($I$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND($I$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Live\HL7\FHIR\Fhir SVN\documents\governance\FMG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8250" yWindow="420" windowWidth="18930" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
     <sheet name="Resources" sheetId="5" r:id="rId2"/>
-    <sheet name="FMG Members" sheetId="4" r:id="rId3"/>
+    <sheet name="Resource Headings" sheetId="6" r:id="rId3"/>
+    <sheet name="FMG Members" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$2:$H$67</definedName>
@@ -17,7 +23,7 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="278">
   <si>
     <t>Patient Care</t>
   </si>
@@ -843,13 +849,31 @@
   </si>
   <si>
     <t>Started</t>
+  </si>
+  <si>
+    <t>Resource Spreadsheet Heading Definitions</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Consulted committee</t>
+  </si>
+  <si>
+    <t>Resource Proposal</t>
+  </si>
+  <si>
+    <t>Example Uses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +907,23 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -993,10 +1034,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,7 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1073,11 +1114,577 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1111,6 +1718,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,7 +1769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,7 +1804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,7 +2082,7 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -1491,13 +2101,13 @@
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="5" t="s">
         <v>148</v>
       </c>
@@ -1545,10 +2155,10 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1572,10 +2182,10 @@
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1599,10 +2209,10 @@
       <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1626,10 +2236,10 @@
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1680,10 +2290,10 @@
       <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1709,10 +2319,10 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1738,10 +2348,10 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1765,10 +2375,10 @@
       <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1777,7 +2387,7 @@
       <c r="G13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>152</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -1794,10 +2404,10 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1821,10 +2431,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1848,10 +2458,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1875,10 +2485,10 @@
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1902,10 +2512,10 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1931,10 +2541,10 @@
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1960,10 +2570,10 @@
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1989,10 +2599,10 @@
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2018,10 +2628,10 @@
       <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2047,10 +2657,10 @@
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2076,10 +2686,10 @@
       <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2128,10 +2738,10 @@
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2155,10 +2765,10 @@
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2182,10 +2792,10 @@
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2209,10 +2819,10 @@
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2236,10 +2846,10 @@
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>196</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2263,10 +2873,10 @@
       <c r="C31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2319,17 +2929,17 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -2610,11 +3220,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,67 +3244,67 @@
     <col min="20" max="20" width="10.7109375" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="25"/>
+    <col min="24" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="29">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="28">
         <f ca="1">TODAY()</f>
-        <v>41380</v>
-      </c>
-      <c r="J1" s="29">
+        <v>41386</v>
+      </c>
+      <c r="J1" s="28">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
-        <v>41349</v>
+        <v>41355</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="32" t="s">
         <v>243</v>
       </c>
       <c r="N2" s="18" t="s">
@@ -2729,120 +3339,120 @@
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28">
+      <c r="B3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27">
         <v>41334</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <v>41334</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>41334</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <v>41334</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <v>41365</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <v>41365</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="27">
         <v>41365</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <v>41395</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <v>41395</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <v>41395</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <v>41395</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <v>41395</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <v>41395</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <v>41395</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <v>41395</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28">
+      <c r="B4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27">
         <v>41365</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>41365</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <v>41365</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="27">
         <v>41365</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="27">
         <v>41395</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="27">
         <v>41395</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="27">
         <v>41395</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="27">
         <v>41456</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>41456</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>41456</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>41456</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <v>41456</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="27">
         <v>41456</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="27">
         <v>41456</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="27">
         <v>41456</v>
       </c>
     </row>
@@ -2862,21 +3472,21 @@
       <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2894,21 +3504,21 @@
       <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2926,21 +3536,21 @@
       <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2958,21 +3568,21 @@
       <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2990,21 +3600,21 @@
       <c r="H9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3022,21 +3632,21 @@
       <c r="H10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3054,21 +3664,21 @@
       <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
     </row>
     <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3086,21 +3696,21 @@
       <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
     </row>
     <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3115,21 +3725,21 @@
       <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
     </row>
     <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3147,21 +3757,21 @@
       <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3176,21 +3786,21 @@
       <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
     </row>
     <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3208,21 +3818,21 @@
       <c r="H16" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3468,13 +4078,13 @@
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3714,7 +4324,7 @@
       <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>170</v>
       </c>
       <c r="I32" t="s">
@@ -3955,7 +4565,7 @@
       <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>170</v>
       </c>
       <c r="I40" t="s">
@@ -4326,7 +4936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -4385,7 +4995,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -4441,7 +5051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -4497,7 +5107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -4553,7 +5163,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -4609,7 +5219,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -4665,7 +5275,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -4697,7 +5307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -4710,11 +5320,11 @@
       <c r="G56" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H56" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -4727,11 +5337,44 @@
       <c r="G57" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>193</v>
+      </c>
+      <c r="I57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" t="s">
+        <v>150</v>
+      </c>
+      <c r="N57" t="s">
+        <v>170</v>
+      </c>
+      <c r="O57" t="s">
+        <v>150</v>
+      </c>
+      <c r="P57" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>170</v>
+      </c>
+      <c r="R57" t="s">
+        <v>170</v>
+      </c>
+      <c r="T57" t="s">
+        <v>271</v>
+      </c>
+      <c r="U57" t="s">
+        <v>271</v>
+      </c>
+      <c r="V57" t="s">
+        <v>271</v>
+      </c>
+      <c r="W57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -4747,8 +5390,41 @@
       <c r="H58" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" t="s">
+        <v>150</v>
+      </c>
+      <c r="N58" t="s">
+        <v>170</v>
+      </c>
+      <c r="O58" t="s">
+        <v>150</v>
+      </c>
+      <c r="P58" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>170</v>
+      </c>
+      <c r="R58" t="s">
+        <v>170</v>
+      </c>
+      <c r="T58" t="s">
+        <v>271</v>
+      </c>
+      <c r="U58" t="s">
+        <v>271</v>
+      </c>
+      <c r="V58" t="s">
+        <v>271</v>
+      </c>
+      <c r="W58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -4761,11 +5437,44 @@
       <c r="G59" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" t="s">
+        <v>150</v>
+      </c>
+      <c r="N59" t="s">
+        <v>170</v>
+      </c>
+      <c r="O59" t="s">
+        <v>150</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>170</v>
+      </c>
+      <c r="R59" t="s">
+        <v>170</v>
+      </c>
+      <c r="T59" t="s">
+        <v>271</v>
+      </c>
+      <c r="U59" t="s">
+        <v>271</v>
+      </c>
+      <c r="V59" t="s">
+        <v>271</v>
+      </c>
+      <c r="W59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -4781,11 +5490,44 @@
       <c r="G60" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" t="s">
+        <v>150</v>
+      </c>
+      <c r="N60" t="s">
+        <v>170</v>
+      </c>
+      <c r="O60" t="s">
+        <v>150</v>
+      </c>
+      <c r="P60" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>170</v>
+      </c>
+      <c r="R60" t="s">
+        <v>170</v>
+      </c>
+      <c r="T60" t="s">
+        <v>271</v>
+      </c>
+      <c r="U60" t="s">
+        <v>271</v>
+      </c>
+      <c r="V60" t="s">
+        <v>271</v>
+      </c>
+      <c r="W60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -4798,11 +5540,44 @@
       <c r="G61" t="s">
         <v>89</v>
       </c>
-      <c r="H61" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61" t="s">
+        <v>150</v>
+      </c>
+      <c r="N61" t="s">
+        <v>170</v>
+      </c>
+      <c r="O61" t="s">
+        <v>150</v>
+      </c>
+      <c r="P61" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>170</v>
+      </c>
+      <c r="R61" t="s">
+        <v>170</v>
+      </c>
+      <c r="T61" t="s">
+        <v>271</v>
+      </c>
+      <c r="U61" t="s">
+        <v>271</v>
+      </c>
+      <c r="V61" t="s">
+        <v>271</v>
+      </c>
+      <c r="W61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>203</v>
       </c>
@@ -4861,7 +5636,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -4920,7 +5695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -5126,21 +5901,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I17:W65 I66:L67">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="I66:L67 I17:W65">
+    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>AND($I$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND($I$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
       <formula1>WorkGroups</formula1>
     </dataValidation>
@@ -5148,6 +5923,21 @@
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Resource Headings'!B4" display="Category"/>
+    <hyperlink ref="B2" location="'Resource Headings'!B5" display="Resource"/>
+    <hyperlink ref="D2" location="'Resource Headings'!B7" display="Consulted Committee"/>
+    <hyperlink ref="C2" location="'Resource Headings'!B6" display="Responsible Committee"/>
+    <hyperlink ref="E2" location="'Resource Headings'!B8" display="Notes"/>
+    <hyperlink ref="F2" location="'Resource Headings'!B9" display="Resource Proposal?"/>
+    <hyperlink ref="G2" location="'Resource Headings'!B10" display="Requirements"/>
+    <hyperlink ref="H2" location="'Resource Headings'!B11" display="Status"/>
+    <hyperlink ref="I2" location="'Resource Headings'!B12" display="Name"/>
+    <hyperlink ref="J2" location="'Resource Headings'!B13" display="Definition"/>
+    <hyperlink ref="K2" location="'Resource Headings'!B14" display="Scope"/>
+    <hyperlink ref="L2" location="'Resource Headings'!B15" display="Content Sources"/>
+    <hyperlink ref="M2" location="'Resource Headings'!B16" display="Example uses"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -5160,6 +5950,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="300">
   <si>
     <t>Patient Care</t>
   </si>
@@ -867,13 +867,79 @@
   </si>
   <si>
     <t>Example Uses</t>
+  </si>
+  <si>
+    <t>Broad categorisation</t>
+  </si>
+  <si>
+    <t>Specific resource name</t>
+  </si>
+  <si>
+    <t>Committee who has primary responsibility</t>
+  </si>
+  <si>
+    <t>Other committee with a significant interest</t>
+  </si>
+  <si>
+    <t>Anything general with no other home</t>
+  </si>
+  <si>
+    <t>Has the resource proposal been submitted and approved by FMG</t>
+  </si>
+  <si>
+    <t>Have the requirements for the resource been identified and documented?</t>
+  </si>
+  <si>
+    <t>Has the name been agreed?</t>
+  </si>
+  <si>
+    <t>Is there an agreed definition for the resource?</t>
+  </si>
+  <si>
+    <t>Has the scope of the resource been specified?</t>
+  </si>
+  <si>
+    <t>Have the sources that are used as references for the attributes in the resources been dentified?</t>
+  </si>
+  <si>
+    <t>Have the example uses for the resource been identified?</t>
+  </si>
+  <si>
+    <t>Have the search criteria been identified?</t>
+  </si>
+  <si>
+    <t>Have the core elements of the resource been identified and add entered into the source spreadsheet?</t>
+  </si>
+  <si>
+    <t>Have one or more examples been created?</t>
+  </si>
+  <si>
+    <t>Has every element been defined?</t>
+  </si>
+  <si>
+    <t>Has every element that uses vocabulary got a binding to a value set or code system?</t>
+  </si>
+  <si>
+    <t>Has the requirement and usage of the element in the content sources been identified?</t>
+  </si>
+  <si>
+    <t>Where a binding has been identified has the content of the value set or code list been specified?</t>
+  </si>
+  <si>
+    <t>Have all the constraints on the elements been specified? (Including writing xpath or ocl)</t>
+  </si>
+  <si>
+    <t>Have additional notes been written using the introduction and notes source files?</t>
+  </si>
+  <si>
+    <t>Have mappings to V3 RIM and V2 been provided?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +978,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -929,7 +1002,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +1042,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,9 +1115,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,9 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1114,577 +1190,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -2082,7 +1612,7 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>71</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -2101,13 +1631,13 @@
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="5" t="s">
         <v>148</v>
       </c>
@@ -2155,10 +1685,10 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2182,10 +1712,10 @@
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2209,10 +1739,10 @@
       <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2236,10 +1766,10 @@
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2290,10 +1820,10 @@
       <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2319,10 +1849,10 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2348,10 +1878,10 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2375,10 +1905,10 @@
       <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2387,7 +1917,7 @@
       <c r="G13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>152</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -2404,10 +1934,10 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2431,10 +1961,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2458,10 +1988,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2485,10 +2015,10 @@
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2512,10 +2042,10 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2541,10 +2071,10 @@
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2570,10 +2100,10 @@
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2599,10 +2129,10 @@
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2628,10 +2158,10 @@
       <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2657,10 +2187,10 @@
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2686,10 +2216,10 @@
       <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2738,10 +2268,10 @@
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2765,10 +2295,10 @@
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2792,10 +2322,10 @@
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2819,10 +2349,10 @@
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2846,10 +2376,10 @@
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>196</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2873,10 +2403,10 @@
       <c r="C31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2929,17 +2459,17 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -3221,10 +2751,10 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,215 +2774,215 @@
     <col min="20" max="20" width="10.7109375" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="24"/>
+    <col min="24" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="28">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="27">
         <f ca="1">TODAY()</f>
         <v>41386</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="27">
         <f ca="1">DATE(YEAR($I$1),MONTH($I$1)-1,DAY($I$1))</f>
         <v>41355</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27">
+      <c r="B3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26">
         <v>41334</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>41334</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
         <v>41334</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>41334</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="26">
         <v>41365</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <v>41365</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="26">
         <v>41365</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="26">
         <v>41395</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="26">
         <v>41395</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="26">
         <v>41395</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <v>41395</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="26">
         <v>41395</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="26">
         <v>41395</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="26">
         <v>41395</v>
       </c>
-      <c r="W3" s="27">
+      <c r="W3" s="26">
         <v>41395</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27">
+      <c r="B4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26">
         <v>41365</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>41365</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
         <v>41365</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="26">
         <v>41365</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="26">
         <v>41395</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="26">
         <v>41395</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="26">
         <v>41395</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="26">
         <v>41456</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="26">
         <v>41456</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="26">
         <v>41456</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="26">
         <v>41456</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="26">
         <v>41456</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="26">
         <v>41456</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="26">
         <v>41456</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="26">
         <v>41456</v>
       </c>
     </row>
@@ -3472,21 +3002,21 @@
       <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3504,21 +3034,21 @@
       <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3536,21 +3066,21 @@
       <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3568,21 +3098,21 @@
       <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3600,21 +3130,21 @@
       <c r="H9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3632,21 +3162,21 @@
       <c r="H10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3664,21 +3194,21 @@
       <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3696,21 +3226,21 @@
       <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3725,21 +3255,21 @@
       <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3757,21 +3287,21 @@
       <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3786,21 +3316,21 @@
       <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3818,21 +3348,21 @@
       <c r="H16" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4078,13 +3608,13 @@
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="28" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4324,7 +3854,7 @@
       <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>170</v>
       </c>
       <c r="I32" t="s">
@@ -4565,7 +4095,7 @@
       <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>170</v>
       </c>
       <c r="I40" t="s">
@@ -5320,7 +4850,7 @@
       <c r="G56" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="28" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5490,7 +5020,7 @@
       <c r="G60" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="23" t="s">
         <v>170</v>
       </c>
       <c r="I60" t="s">
@@ -5902,20 +5432,20 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="I66:L67 I17:W65">
-    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND($J$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND($I$1&gt;=I$4,OR(I17="",I17="Started",I17="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND($I$1&gt;=I$3,OR(I17="",I17="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
       <formula1>WorkGroups</formula1>
     </dataValidation>
@@ -5937,6 +5467,16 @@
     <hyperlink ref="K2" location="'Resource Headings'!B14" display="Scope"/>
     <hyperlink ref="L2" location="'Resource Headings'!B15" display="Content Sources"/>
     <hyperlink ref="M2" location="'Resource Headings'!B16" display="Example uses"/>
+    <hyperlink ref="N2" location="'Resource Headings'!B17" display="Search Criteria"/>
+    <hyperlink ref="O2" location="'Resource Headings'!B18" display="Core elements"/>
+    <hyperlink ref="P2" location="'Resource Headings'!B19" display="Examples"/>
+    <hyperlink ref="Q2" location="'Resource Headings'!B20" display="Element definitions"/>
+    <hyperlink ref="R2" location="'Resource Headings'!B21" display="Bindings"/>
+    <hyperlink ref="S2" location="'Resource Headings'!B22" display="Requirements &amp; Usage"/>
+    <hyperlink ref="T2" location="'Resource Headings'!B23" display="Value Sets / Code Lists"/>
+    <hyperlink ref="U2" location="'Resource Headings'!B24" display="Invariants"/>
+    <hyperlink ref="V2" location="'Resource Headings'!B25" display="HTML files"/>
+    <hyperlink ref="W2" location="'Resource Headings'!B26" display="Mappings"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5950,94 +5490,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="36" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>145</v>
       </c>
+      <c r="B4" s="33" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>82</v>
       </c>
+      <c r="B5" s="33" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>175</v>
       </c>
+      <c r="B6" s="33" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>275</v>
       </c>
+      <c r="B7" s="33" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>83</v>
       </c>
+      <c r="B10" s="33" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>239</v>
       </c>
+      <c r="B12" s="33" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>240</v>
       </c>
+      <c r="B13" s="33" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>242</v>
       </c>
+      <c r="B15" s="33" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>277</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Live\HL7\FHIR\Fhir SVN\documents\governance\FMG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8250" yWindow="480" windowWidth="18930" windowHeight="9090" activeTab="1"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$K$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="318">
   <si>
     <t>Patient Care</t>
   </si>
@@ -540,9 +545,6 @@
     <t>Draft</t>
   </si>
   <si>
-    <t>Resource Proposal?</t>
-  </si>
-  <si>
     <t>Financial</t>
   </si>
   <si>
@@ -957,9 +959,6 @@
     <t>Referral</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Lloyd - needs updating</t>
   </si>
   <si>
@@ -970,13 +969,31 @@
   </si>
   <si>
     <t>RelatedPerson</t>
+  </si>
+  <si>
+    <t>Resource Proposal Author</t>
+  </si>
+  <si>
+    <t>Resource Proposal 1st Review</t>
+  </si>
+  <si>
+    <t>Resourvce Proposal 2nd Review</t>
+  </si>
+  <si>
+    <t>Resource Proposal Status?</t>
+  </si>
+  <si>
+    <t>John M</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1058,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1155,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,9 +1250,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1268,6 +1288,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1359,7 +1385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,7 +1420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1650,7 +1676,7 @@
         <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>43</v>
@@ -1658,10 +1684,10 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>49</v>
@@ -1695,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="5" t="s">
@@ -1713,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -1732,7 +1758,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>6</v>
@@ -1803,7 +1829,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>71</v>
@@ -1821,16 +1847,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>71</v>
@@ -1840,15 +1866,15 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -1966,7 +1992,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>8</v>
@@ -1995,10 +2021,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -2067,10 +2093,10 @@
     </row>
     <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -2089,7 +2115,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2132,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>9</v>
@@ -2144,7 +2170,7 @@
         <v>149</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>67</v>
@@ -2251,13 +2277,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>153</v>
@@ -2280,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>71</v>
@@ -2295,10 +2321,10 @@
     </row>
     <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -2310,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2356,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>9</v>
@@ -2440,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>71</v>
@@ -2464,7 +2490,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>7</v>
@@ -2604,7 +2630,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
@@ -2623,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
@@ -2642,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -2661,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
@@ -2677,10 +2703,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
@@ -2808,13 +2834,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46:F50"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,244 +2850,255 @@
     <col min="3" max="3" width="11.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="8.85546875" style="22"/>
-    <col min="18" max="18" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="22"/>
-    <col min="20" max="20" width="12.85546875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="22" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="22"/>
-    <col min="24" max="24" width="9.5703125" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="27"/>
+    <col min="6" max="9" width="22.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.85546875" style="22"/>
+    <col min="20" max="20" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="22"/>
+    <col min="22" max="22" width="12.85546875" style="22" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="22" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="22"/>
+    <col min="26" max="26" width="9.5703125" style="22" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41408</v>
-      </c>
-      <c r="K1" s="26">
-        <f ca="1">DATE(YEAR($J$1),MONTH($J$1)-1,DAY($J$1))</f>
-        <v>41378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+        <v>41413</v>
+      </c>
+      <c r="M1" s="25">
+        <f ca="1">DATE(YEAR($L$1),MONTH($L$1)-1,DAY($L$1))</f>
+        <v>41383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31">
         <v>41334</v>
       </c>
-      <c r="K2" s="32">
+      <c r="M2" s="31">
         <v>41334</v>
       </c>
-      <c r="L2" s="32">
+      <c r="N2" s="31">
         <v>41334</v>
       </c>
-      <c r="M2" s="32">
+      <c r="O2" s="31">
         <v>41334</v>
       </c>
-      <c r="N2" s="32">
+      <c r="P2" s="31">
         <v>41365</v>
       </c>
-      <c r="O2" s="32">
+      <c r="Q2" s="31">
         <v>41365</v>
       </c>
-      <c r="P2" s="32">
+      <c r="R2" s="31">
         <v>41365</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="S2" s="31">
         <v>41395</v>
       </c>
-      <c r="R2" s="32">
+      <c r="T2" s="31">
         <v>41395</v>
       </c>
-      <c r="S2" s="32">
+      <c r="U2" s="31">
         <v>41395</v>
       </c>
-      <c r="T2" s="32">
+      <c r="V2" s="31">
         <v>41395</v>
       </c>
-      <c r="U2" s="32">
+      <c r="W2" s="31">
         <v>41395</v>
       </c>
-      <c r="V2" s="32">
+      <c r="X2" s="31">
         <v>41395</v>
       </c>
-      <c r="W2" s="32">
+      <c r="Y2" s="31">
         <v>41395</v>
       </c>
-      <c r="X2" s="32">
+      <c r="Z2" s="31">
         <v>41395</v>
       </c>
     </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31">
         <v>41365</v>
       </c>
-      <c r="K3" s="32">
+      <c r="M3" s="31">
         <v>41365</v>
       </c>
-      <c r="L3" s="32">
+      <c r="N3" s="31">
         <v>41365</v>
       </c>
-      <c r="M3" s="32">
+      <c r="O3" s="31">
         <v>41365</v>
       </c>
-      <c r="N3" s="32">
+      <c r="P3" s="31">
         <v>41395</v>
       </c>
-      <c r="O3" s="32">
+      <c r="Q3" s="31">
         <v>41395</v>
       </c>
-      <c r="P3" s="32">
+      <c r="R3" s="31">
         <v>41395</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="S3" s="31">
         <v>41456</v>
       </c>
-      <c r="R3" s="32">
+      <c r="T3" s="31">
         <v>41456</v>
       </c>
-      <c r="S3" s="32">
+      <c r="U3" s="31">
         <v>41456</v>
       </c>
-      <c r="T3" s="32">
+      <c r="V3" s="31">
         <v>41456</v>
       </c>
-      <c r="U3" s="32">
+      <c r="W3" s="31">
         <v>41456</v>
       </c>
-      <c r="V3" s="32">
+      <c r="X3" s="31">
         <v>41456</v>
       </c>
-      <c r="W3" s="32">
+      <c r="Y3" s="31">
         <v>41456</v>
       </c>
-      <c r="X3" s="32">
+      <c r="Z3" s="31">
         <v>41456</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="F4" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="L4" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="N4" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="P4" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="Q4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="R4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="S4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="U4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="V4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="W4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="X4" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="Y4" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="Z4" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="X4" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>213</v>
+        <v>194</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>115</v>
@@ -3070,38 +3107,44 @@
         <v>120</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="K5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>168</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3111,35 +3154,41 @@
         <v>91</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H6" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K6" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -3149,35 +3198,41 @@
         <v>102</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -3190,73 +3245,85 @@
         <v>7</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K9" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -3268,150 +3335,177 @@
       <c r="E10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>246</v>
+        <v>300</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="K11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B12" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -3420,113 +3514,134 @@
       <c r="E14" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>169</v>
+      <c r="E15" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="F16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>261</v>
+        <v>193</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>260</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>115</v>
@@ -3535,130 +3650,148 @@
         <v>94</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H18" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-    </row>
-    <row r="19" spans="1:24" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="K18" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+    </row>
+    <row r="19" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="34" t="s">
+      <c r="E19" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K20" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>247</v>
+      <c r="B21" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H21" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="K21" s="22" t="s">
         <v>169</v>
       </c>
@@ -3668,30 +3801,42 @@
       <c r="M21" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N21" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>313</v>
+      <c r="B22" s="32" t="s">
+        <v>311</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>254</v>
+      <c r="B23" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>97</v>
@@ -3700,50 +3845,56 @@
         <v>102</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H23" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K23" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>316</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K24" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" s="22" t="s">
+      <c r="M24" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q24" s="22" t="s">
@@ -3767,13 +3918,19 @@
       <c r="W24" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X24" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>251</v>
+        <v>302</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>116</v>
@@ -3781,25 +3938,25 @@
       <c r="F25" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>169</v>
+      <c r="G25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" s="22" t="s">
+      <c r="M25" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q25" s="22" t="s">
@@ -3823,33 +3980,39 @@
       <c r="W25" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" s="34" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="X25" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y25" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="34" t="s">
+      <c r="E26" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K26" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>116</v>
@@ -3857,31 +4020,37 @@
       <c r="F27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>169</v>
+      <c r="G27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>169</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N27" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>250</v>
+        <v>302</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>116</v>
@@ -3889,31 +4058,37 @@
       <c r="F28" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>169</v>
+      <c r="G28" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>183</v>
+      <c r="B29" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>115</v>
@@ -3924,30 +4099,36 @@
       <c r="F29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="22" t="s">
+      <c r="G29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L29" s="22" t="s">
         <v>169</v>
       </c>
       <c r="M29" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -3959,25 +4140,25 @@
       <c r="F30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="K30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="L30" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P30" s="22" t="s">
+      <c r="M30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q30" s="22" t="s">
@@ -4001,36 +4182,42 @@
       <c r="W30" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="34" t="s">
+      <c r="X30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="J31" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K31" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>260</v>
+        <v>193</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>259</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>93</v>
@@ -4041,18 +4228,24 @@
       <c r="F32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="G32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K32" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -4061,18 +4254,27 @@
       <c r="F33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K33" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -4081,25 +4283,28 @@
       <c r="F34" s="22" t="s">
         <v>6</v>
       </c>
+      <c r="G34" t="s">
+        <v>316</v>
+      </c>
       <c r="H34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="K34" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P34" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q34" s="22" t="s">
@@ -4123,42 +4328,51 @@
       <c r="W34" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X34" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y34" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>6</v>
       </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
       <c r="H35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P35" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N35" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q35" s="22" t="s">
@@ -4182,52 +4396,60 @@
       <c r="W35" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="X35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y35" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I36" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-    </row>
-    <row r="37" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+    </row>
+    <row r="37" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -4238,15 +4460,21 @@
       <c r="F37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="K37" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -4260,12 +4488,14 @@
       <c r="V37" s="22"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
-    </row>
-    <row r="38" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+    </row>
+    <row r="38" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>142</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -4278,93 +4508,101 @@
       <c r="F38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22" t="s">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="N38" s="22"/>
-      <c r="O38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P38" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
       <c r="Q38" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R38" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S38" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="T38" s="22"/>
+      <c r="T38" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="U38" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="V38" s="22" t="s">
-        <v>263</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="V38" s="22"/>
       <c r="W38" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X38" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y38" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z38" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>249</v>
+        <v>171</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>115</v>
@@ -4373,112 +4611,130 @@
         <v>102</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K40" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H41" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K41" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P41" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q41" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R41" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S41" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="T41" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="U41" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="V41" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="Y41" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z41" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="K42" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>263</v>
-      </c>
       <c r="L42" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="O42" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>252</v>
+        <v>194</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>115</v>
@@ -4487,30 +4743,30 @@
         <v>77</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>192</v>
+      </c>
+      <c r="J43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="K43" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J43" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P43" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q43" s="22" t="s">
@@ -4534,13 +4790,19 @@
       <c r="W43" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y43" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>211</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>115</v>
@@ -4549,30 +4811,30 @@
         <v>41</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="K44" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P44" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N44" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q44" s="22" t="s">
@@ -4596,46 +4858,52 @@
       <c r="W44" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y44" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="K45" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J45" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="L45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O45" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P45" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q45" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="R45" s="22" t="s">
         <v>169</v>
@@ -4655,12 +4923,18 @@
       <c r="W45" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y45" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -4672,18 +4946,24 @@
       <c r="F46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="K46" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -4695,25 +4975,25 @@
       <c r="F47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="K47" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L47" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O47" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P47" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N47" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q47" s="22" t="s">
@@ -4737,12 +5017,18 @@
       <c r="W47" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X47" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y47" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -4754,18 +5040,24 @@
       <c r="F48" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
       <c r="H48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="K48" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -4774,25 +5066,25 @@
       <c r="F49" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L49" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O49" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P49" s="22" t="s">
+      <c r="M49" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q49" s="22" t="s">
@@ -4816,13 +5108,19 @@
       <c r="W49" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X49" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y49" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>306</v>
+        <v>194</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>115</v>
@@ -4831,59 +5129,65 @@
         <v>120</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H50" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="K50" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L50" s="22" t="s">
         <v>169</v>
       </c>
       <c r="M50" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="N50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>307</v>
+      <c r="B52" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>115</v>
@@ -4894,19 +5198,25 @@
       <c r="F52" s="22" t="s">
         <v>49</v>
       </c>
+      <c r="G52" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="H52" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="K52" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>94</v>
@@ -4914,22 +5224,22 @@
       <c r="F53" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I53" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>169</v>
+      <c r="G53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L53" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="O53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P53" s="22" t="s">
+      <c r="M53" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N53" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q53" s="22" t="s">
@@ -4953,13 +5263,19 @@
       <c r="W53" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X53" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y53" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>258</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>115</v>
@@ -4968,30 +5284,30 @@
         <v>94</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="G54" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H54" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K54" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L54" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P54" s="22" t="s">
+      <c r="M54" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q54" s="22" t="s">
@@ -5015,13 +5331,19 @@
       <c r="W54" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X54" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y54" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>216</v>
+        <v>194</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>115</v>
@@ -5032,51 +5354,57 @@
       <c r="F55" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="G55" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="H55" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K55" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P55" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M55" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q55" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R55" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S55" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="T55" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="U55" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="V55" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="W55" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X55" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="Y55" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z55" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -5085,52 +5413,58 @@
       <c r="F56" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="G56" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="H56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P56" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q56" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R56" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S56" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="T56" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="U56" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="V56" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="W56" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X56" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="Y56" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z56" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>257</v>
+        <v>171</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>117</v>
@@ -5138,25 +5472,25 @@
       <c r="F57" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="G57" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="H57" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K57" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L57" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P57" s="22" t="s">
+      <c r="M57" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q57" s="22" t="s">
@@ -5180,36 +5514,36 @@
       <c r="W57" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="X57" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y57" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>296</v>
+        <v>179</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="L58" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O58" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P58" s="22" t="s">
+      <c r="M58" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N58" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q58" s="22" t="s">
@@ -5233,13 +5567,19 @@
       <c r="W58" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X58" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y58" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>295</v>
+        <v>179</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>115</v>
@@ -5247,16 +5587,16 @@
       <c r="D59" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="K59" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>115</v>
@@ -5264,16 +5604,16 @@
       <c r="D60" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="K60" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>294</v>
+        <v>179</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>293</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>115</v>
@@ -5281,22 +5621,16 @@
       <c r="D61" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="K61" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q61" s="22" t="s">
@@ -5320,13 +5654,19 @@
       <c r="W61" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X61" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y61" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>115</v>
@@ -5334,22 +5674,16 @@
       <c r="D62" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="K62" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="L62" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P62" s="22" t="s">
+      <c r="M62" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q62" s="22" t="s">
@@ -5373,13 +5707,19 @@
       <c r="W62" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X62" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y62" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>293</v>
+        <v>179</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>292</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>115</v>
@@ -5387,22 +5727,16 @@
       <c r="D63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="K63" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="L63" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P63" s="22" t="s">
+      <c r="M63" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q63" s="22" t="s">
@@ -5426,12 +5760,18 @@
       <c r="W63" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X63" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y63" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -5440,16 +5780,16 @@
       <c r="D64" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K64" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>300</v>
+        <v>176</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>115</v>
@@ -5457,16 +5797,16 @@
       <c r="D65" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="K65" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>115</v>
@@ -5474,16 +5814,16 @@
       <c r="D66" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="K66" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>115</v>
@@ -5491,22 +5831,16 @@
       <c r="D67" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="K67" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="L67" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="O67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P67" s="22" t="s">
+      <c r="M67" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N67" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q67" s="22" t="s">
@@ -5530,13 +5864,19 @@
       <c r="W67" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X67" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y67" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>299</v>
+        <v>176</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>115</v>
@@ -5544,22 +5884,16 @@
       <c r="D68" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="K68" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J68" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P68" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N68" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q68" s="22" t="s">
@@ -5583,33 +5917,33 @@
       <c r="W68" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X68" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y68" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="33" t="s">
         <v>176</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="K69" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J69" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L69" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="O69" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P69" s="22" t="s">
+      <c r="M69" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N69" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q69" s="22" t="s">
@@ -5633,137 +5967,140 @@
       <c r="W69" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X69" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y69" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X70" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y70" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W70" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="K71" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J71" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="P71" s="22" t="s">
+      <c r="L71" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M71" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q71" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R71" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S71" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="T71" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="U71" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="V71" s="22" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="W71" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X71" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="Y71" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z71" s="22" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I71">
-    <filterColumn colId="8">
+  <autoFilter ref="A4:K71">
+    <filterColumn colId="10">
       <filters blank="1">
         <filter val="Draft"/>
         <filter val="Proposed"/>
         <filter val="Semi-stable"/>
       </filters>
     </filterColumn>
-    <sortState ref="A5:I70">
-      <sortCondition ref="F4:F70"/>
-    </sortState>
   </autoFilter>
   <sortState ref="A5:X70">
     <sortCondition ref="A5:A70"/>
     <sortCondition ref="B5:B70"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J71:M71 J19:X70">
+  <conditionalFormatting sqref="L71:O71 L19:Z70">
     <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND($K$1&gt;=J$3,OR(J19="",J19="Started",J19="Draft"))</formula>
+      <formula>AND($M$1&gt;=L$3,OR(L19="",L19="Started",L19="Draft"))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
-      <formula>AND($K$1&gt;=J$2,OR(J19="",J19="Started"))</formula>
+      <formula>AND($M$1&gt;=L$2,OR(L19="",L19="Started"))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND($J$1&gt;=J$3,OR(J19="",J19="Started",J19="Draft"))</formula>
+      <formula>AND($L$1&gt;=L$3,OR(L19="",L19="Started",L19="Draft"))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($J$1&gt;=J$2,OR(J19="",J19="Started"))</formula>
+      <formula>AND($L$1&gt;=L$2,OR(L19="",L19="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19:X70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L19:Z70">
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C70">
@@ -5776,24 +6113,24 @@
     <hyperlink ref="D4" location="'Resource Headings'!B7" display="Consulted Committee"/>
     <hyperlink ref="C4" location="'Resource Headings'!B6" display="Responsible Committee"/>
     <hyperlink ref="E4" location="'Resource Headings'!B8" display="Notes"/>
-    <hyperlink ref="G4" location="'Resource Headings'!B9" display="Resource Proposal?"/>
-    <hyperlink ref="H4" location="'Resource Headings'!B10" display="Requirements"/>
-    <hyperlink ref="I4" location="'Resource Headings'!B11" display="Status"/>
-    <hyperlink ref="J4" location="'Resource Headings'!B12" display="Name"/>
-    <hyperlink ref="K4" location="'Resource Headings'!B13" display="Definition"/>
-    <hyperlink ref="L4" location="'Resource Headings'!B14" display="Scope"/>
-    <hyperlink ref="M4" location="'Resource Headings'!B15" display="Content Sources"/>
-    <hyperlink ref="N4" location="'Resource Headings'!B16" display="Example uses"/>
-    <hyperlink ref="O4" location="'Resource Headings'!B17" display="Search Criteria"/>
-    <hyperlink ref="P4" location="'Resource Headings'!B18" display="Core elements"/>
-    <hyperlink ref="Q4" location="'Resource Headings'!B19" display="Examples"/>
-    <hyperlink ref="R4" location="'Resource Headings'!B20" display="Element definitions"/>
-    <hyperlink ref="S4" location="'Resource Headings'!B21" display="Bindings"/>
-    <hyperlink ref="T4" location="'Resource Headings'!B22" display="Requirements &amp; Usage"/>
-    <hyperlink ref="U4" location="'Resource Headings'!B23" display="Value Sets / Code Lists"/>
-    <hyperlink ref="V4" location="'Resource Headings'!B24" display="Invariants"/>
-    <hyperlink ref="W4" location="'Resource Headings'!B25" display="HTML files"/>
-    <hyperlink ref="X4" location="'Resource Headings'!B26" display="Mappings"/>
+    <hyperlink ref="J4" location="'Resource Headings'!B10" display="Requirements"/>
+    <hyperlink ref="K4" location="'Resource Headings'!B11" display="Status"/>
+    <hyperlink ref="L4" location="'Resource Headings'!B12" display="Name"/>
+    <hyperlink ref="M4" location="'Resource Headings'!B13" display="Definition"/>
+    <hyperlink ref="N4" location="'Resource Headings'!B14" display="Scope"/>
+    <hyperlink ref="O4" location="'Resource Headings'!B15" display="Content Sources"/>
+    <hyperlink ref="P4" location="'Resource Headings'!B16" display="Example uses"/>
+    <hyperlink ref="Q4" location="'Resource Headings'!B17" display="Search Criteria"/>
+    <hyperlink ref="R4" location="'Resource Headings'!B18" display="Core elements"/>
+    <hyperlink ref="S4" location="'Resource Headings'!B19" display="Examples"/>
+    <hyperlink ref="T4" location="'Resource Headings'!B20" display="Element definitions"/>
+    <hyperlink ref="U4" location="'Resource Headings'!B21" display="Bindings"/>
+    <hyperlink ref="V4" location="'Resource Headings'!B22" display="Requirements &amp; Usage"/>
+    <hyperlink ref="W4" location="'Resource Headings'!B23" display="Value Sets / Code Lists"/>
+    <hyperlink ref="X4" location="'Resource Headings'!B24" display="Invariants"/>
+    <hyperlink ref="Y4" location="'Resource Headings'!B25" display="HTML files"/>
+    <hyperlink ref="Z4" location="'Resource Headings'!B26" display="Mappings"/>
+    <hyperlink ref="I4" location="'Resource Headings'!B9" display="Resource Proposal Status?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5810,7 +6147,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,15 +6159,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5838,7 +6175,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5846,23 +6183,23 @@
         <v>82</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,15 +6207,15 @@
         <v>163</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5886,7 +6223,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,122 +6233,122 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6057,12 +6394,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -6072,12 +6409,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Live\HL7\FHIR\Fhir SVN\documents\governance\FMG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8250" yWindow="480" windowWidth="18930" windowHeight="9090" activeTab="1"/>
   </bookViews>
@@ -18,22 +13,17 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$K$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$K$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="320">
   <si>
     <t>Patient Care</t>
   </si>
@@ -686,9 +676,6 @@
     <t>Ewout</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>EHR</t>
   </si>
   <si>
@@ -773,9 +760,6 @@
     <t>DiagnosticReport</t>
   </si>
   <si>
-    <t>Practioner</t>
-  </si>
-  <si>
     <t>Was Agent, Provider</t>
   </si>
   <si>
@@ -794,12 +778,6 @@
     <t>Was XdsEntry, IndexEntry</t>
   </si>
   <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>Was Encounter</t>
-  </si>
-  <si>
     <t>ImagingStudy</t>
   </si>
   <si>
@@ -987,6 +965,24 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>ConsentDirective</t>
+  </si>
+  <si>
+    <t>Practitioner</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>Was Visit</t>
+  </si>
+  <si>
+    <t>CBCC, Security</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,18 +1285,80 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1334,9 +1392,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1385,7 +1440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,7 +1475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1739,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -1871,10 +1926,10 @@
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -2321,10 +2376,10 @@
     </row>
     <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -2336,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2630,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>11</v>
@@ -2649,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
@@ -2668,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -2687,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
@@ -2703,10 +2758,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
@@ -2823,24 +2878,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,26 +2917,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41413</v>
+        <v>41436</v>
       </c>
       <c r="M1" s="25">
         <f ca="1">DATE(YEAR($L$1),MONTH($L$1)-1,DAY($L$1))</f>
-        <v>41383</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3029,17 +3079,17 @@
       <c r="E4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>314</v>
+      <c r="F4" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>310</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>83</v>
@@ -3048,49 +3098,49 @@
         <v>84</v>
       </c>
       <c r="L4" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="T4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="U4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="V4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="W4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="X4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -3118,27 +3168,18 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
+      <c r="I5" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J5" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="L5" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -3154,7 +3195,7 @@
         <v>91</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G6" t="s">
         <v>192</v>
@@ -3162,34 +3203,25 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
+      <c r="I6" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J6" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="L6" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>115</v>
@@ -3198,42 +3230,31 @@
         <v>102</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="32"/>
       <c r="J7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+        <v>257</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>115</v>
@@ -3241,228 +3262,175 @@
       <c r="D8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" t="s">
-        <v>192</v>
+        <v>287</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="K8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" t="s">
         <v>192</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+      <c r="D11" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
+      <c r="L12" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>94</v>
@@ -3471,49 +3439,34 @@
         <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>135</v>
-      </c>
       <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
@@ -3521,46 +3474,31 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="L14" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>193</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>207</v>
-      </c>
       <c r="F15" s="7" t="s">
         <v>192</v>
       </c>
@@ -3570,48 +3508,42 @@
       <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>169</v>
+      <c r="I15" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
+      <c r="L15" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J16" s="22" t="s">
@@ -3620,139 +3552,124 @@
       <c r="K16" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L16" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>193</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>309</v>
+      <c r="E17" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
+      <c r="I18" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-    </row>
-    <row r="19" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -3760,259 +3677,250 @@
       <c r="H20" t="s">
         <v>40</v>
       </c>
+      <c r="I20" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J20" s="22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E21" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>311</v>
+        <v>99</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>40</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="E23" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>316</v>
+        <v>192</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L23" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X24" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y24" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>302</v>
+        <v>164</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>312</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y25" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="33" t="s">
+      <c r="F26" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K26" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y26" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>116</v>
@@ -4021,13 +3929,16 @@
         <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
       </c>
+      <c r="I27" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J27" s="22" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>169</v>
@@ -4036,194 +3947,194 @@
         <v>149</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F29" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G28" t="s">
-        <v>316</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="I29" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B31" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D31" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J31" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>192</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y30" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>193</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>6</v>
@@ -4232,107 +4143,101 @@
         <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" t="s">
-        <v>316</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y32" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>169</v>
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
+        <v>312</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y34" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -4340,269 +4245,257 @@
         <v>195</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>214</v>
-      </c>
       <c r="F35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X35" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y35" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-    </row>
-    <row r="37" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y36" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="F37" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>169</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-    </row>
-    <row r="38" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="K37" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="S37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y37" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E38" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+    </row>
+    <row r="39" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
+      <c r="I39" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="X38" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y38" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z38" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K39" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+    </row>
+    <row r="40" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>115</v>
@@ -4610,9 +4503,7 @@
       <c r="D40" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
         <v>40</v>
       </c>
@@ -4620,7 +4511,10 @@
         <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>192</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>89</v>
@@ -4628,152 +4522,156 @@
       <c r="K40" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R41" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W41" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="X41" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y41" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z41" s="22" t="s">
-        <v>262</v>
-      </c>
+      <c r="L40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="X40" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y40" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z40" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>185</v>
+        <v>102</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
       </c>
+      <c r="I42" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J42" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="O42" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>251</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>8</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="L43" s="22" t="s">
         <v>149</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="Q43" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R43" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S43" s="22" t="s">
         <v>169</v>
@@ -4784,34 +4682,31 @@
       <c r="U43" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="V43" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="W43" s="22" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="X43" s="22" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>169</v>
+        <v>258</v>
+      </c>
+      <c r="Z43" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>187</v>
@@ -4820,7 +4715,10 @@
         <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>192</v>
+        <v>8</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>86</v>
@@ -4829,40 +4727,16 @@
         <v>87</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y44" s="22" t="s">
-        <v>169</v>
+        <v>258</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4870,13 +4744,16 @@
         <v>194</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>185</v>
+        <v>77</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>187</v>
@@ -4887,6 +4764,9 @@
       <c r="H45" t="s">
         <v>192</v>
       </c>
+      <c r="I45" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J45" s="22" t="s">
         <v>77</v>
       </c>
@@ -4897,13 +4777,13 @@
         <v>149</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q45" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R45" s="22" t="s">
         <v>169</v>
@@ -4932,25 +4812,31 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>192</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J46" s="22" t="s">
         <v>86</v>
@@ -4958,31 +4844,70 @@
       <c r="K46" s="22" t="s">
         <v>87</v>
       </c>
+      <c r="L46" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="S46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y46" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
+        <v>192</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>87</v>
@@ -4991,13 +4916,13 @@
         <v>149</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>169</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="R47" s="22" t="s">
         <v>169</v>
@@ -5029,22 +4954,25 @@
         <v>85</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>86</v>
@@ -5055,90 +4983,96 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>92</v>
+        <v>115</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>9</v>
+      <c r="G49" t="s">
+        <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="L49" s="22" t="s">
         <v>149</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="U49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="W49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="X49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>308</v>
+        <v>124</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>316</v>
+        <v>40</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>86</v>
@@ -5146,40 +5080,70 @@
       <c r="K50" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O50" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>204</v>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y51" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -5187,22 +5151,28 @@
         <v>194</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>317</v>
+        <v>120</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>86</v>
@@ -5210,64 +5180,40 @@
       <c r="K52" s="22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X53" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y53" s="22" t="s">
-        <v>169</v>
+      <c r="L52" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O52" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -5275,108 +5221,72 @@
         <v>194</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y54" s="22" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>94</v>
       </c>
       <c r="G55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="22" t="s">
-        <v>7</v>
+      <c r="I55" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="Q55" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R55" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S55" s="22" t="s">
         <v>169</v>
@@ -5387,40 +5297,49 @@
       <c r="U55" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="V55" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="W55" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="X55" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="Y55" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z55" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>7</v>
+      <c r="I56" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>169</v>
@@ -5431,55 +5350,64 @@
       <c r="M56" s="22" t="s">
         <v>149</v>
       </c>
+      <c r="N56" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="Q56" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="R56" s="22" t="s">
         <v>149</v>
       </c>
       <c r="S56" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T56" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
+      </c>
+      <c r="V56" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="W56" s="22" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="X56" s="22" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="Y56" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z56" s="22" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="I57" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="J57" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>169</v>
@@ -5490,49 +5418,58 @@
       <c r="M57" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N57" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="Q57" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R57" s="22" t="s">
         <v>149</v>
       </c>
       <c r="S57" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T57" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="U57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V57" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
+      </c>
+      <c r="Z57" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>296</v>
+        <v>117</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>169</v>
@@ -5543,52 +5480,97 @@
       <c r="M58" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="Q58" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R58" s="22" t="s">
         <v>149</v>
       </c>
       <c r="S58" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T58" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="U58" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V58" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>149</v>
+        <v>258</v>
+      </c>
+      <c r="Z58" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X59" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y59" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5596,16 +5578,52 @@
         <v>179</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y60" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -5613,52 +5631,16 @@
         <v>179</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="K61" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X61" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y61" s="22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -5666,7 +5648,7 @@
         <v>179</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>115</v>
@@ -5676,42 +5658,6 @@
       </c>
       <c r="K62" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X62" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y62" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -5719,13 +5665,13 @@
         <v>179</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K63" s="22" t="s">
         <v>87</v>
@@ -5734,37 +5680,37 @@
         <v>149</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="U63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="V63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Y63" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -5772,50 +5718,122 @@
         <v>179</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y64" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K65" s="22" t="s">
         <v>87</v>
       </c>
+      <c r="L65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y65" s="22" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -5823,52 +5841,16 @@
         <v>176</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X67" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y67" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -5876,52 +5858,16 @@
         <v>176</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K68" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X68" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y68" s="22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
@@ -5929,49 +5875,52 @@
         <v>176</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>115</v>
       </c>
+      <c r="D69" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="K69" s="22" t="s">
         <v>87</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="N69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="Q69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="R69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="U69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="V69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="Y69" s="22" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
@@ -5979,7 +5928,13 @@
         <v>176</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>87</v>
@@ -5988,37 +5943,37 @@
         <v>149</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="R70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
@@ -6026,7 +5981,7 @@
         <v>176</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>115</v>
@@ -6035,16 +5990,19 @@
         <v>87</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="Q71" s="22" t="s">
         <v>169</v>
       </c>
       <c r="R71" s="22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S71" s="22" t="s">
         <v>169</v>
@@ -6055,23 +6013,117 @@
       <c r="U71" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="V71" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="W71" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="X71" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="Y71" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z71" s="22" t="s">
-        <v>262</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="R72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="U72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="V72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="W72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="X72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y72" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S73" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="T73" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U73" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W73" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="X73" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y73" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z73" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K71">
+  <autoFilter ref="A4:K73">
     <filterColumn colId="10">
-      <filters blank="1">
+      <filters>
         <filter val="Draft"/>
         <filter val="Proposed"/>
         <filter val="Semi-stable"/>
@@ -6085,25 +6137,53 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L71:O71 L19:Z70">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND($M$1&gt;=L$3,OR(L19="",L19="Started",L19="Draft"))</formula>
+  <conditionalFormatting sqref="L73:O73 L21:Z72">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>AND($M$1&gt;=L$3,OR(L21="",L21="Started",L21="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
-      <formula>AND($M$1&gt;=L$2,OR(L19="",L19="Started"))</formula>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>AND($M$1&gt;=L$2,OR(L21="",L21="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND($L$1&gt;=L$3,OR(L19="",L19="Started",L19="Draft"))</formula>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>AND($L$1&gt;=L$3,OR(L21="",L21="Started",L21="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($L$1&gt;=L$2,OR(L19="",L19="Started"))</formula>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>AND($L$1&gt;=L$2,OR(L21="",L21="Started"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:Z20">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>AND($M$1&gt;=M$3,OR(M5="",M5="Started",M5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>AND($M$1&gt;=M$2,OR(M5="",M5="Started"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($L$1&gt;=M$3,OR(M5="",M5="Started",M5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND($L$1&gt;=M$2,OR(M5="",M5="Started"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L20">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND($M$1&gt;=L$3,OR(L5="",L5="Started",L5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND($M$1&gt;=L$2,OR(L5="",L5="Started"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND($L$1&gt;=L$3,OR(L5="",L5="Started",L5="Draft"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($L$1&gt;=L$2,OR(L5="",L5="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L19:Z70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:Z72">
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C70">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C72">
       <formula1>WorkGroups</formula1>
     </dataValidation>
   </dataValidations>
@@ -6134,11 +6214,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6159,15 +6234,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6250,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +6258,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,15 +6266,15 @@
         <v>172</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,15 +6282,15 @@
         <v>163</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6223,7 +6298,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6233,122 +6308,122 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6422,10 +6497,5 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sulu Filing\HL7\FHIR\Fhir SVN\documents\governance\FMG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8250" yWindow="480" windowWidth="18930" windowHeight="9090" activeTab="1"/>
   </bookViews>
@@ -18,12 +23,12 @@
     <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
     <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="321">
   <si>
     <t>Patient Care</t>
   </si>
@@ -983,6 +988,9 @@
   </si>
   <si>
     <t>CBCC, Security</t>
+  </si>
+  <si>
+    <t>Hugh - done</t>
   </si>
 </sst>
 </file>
@@ -1288,14 +1296,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1393,6 +1401,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1440,7 +1451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1475,7 +1486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2890,7 +2901,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,26 +2928,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="M1" s="25">
         <f ca="1">DATE(YEAR($L$1),MONTH($L$1)-1,DAY($L$1))</f>
-        <v>41405</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3369,7 @@
       <c r="A11" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>315</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -3368,16 +3379,16 @@
         <v>319</v>
       </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>169</v>
       </c>
       <c r="J11" s="36" t="s">
@@ -3602,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
         <v>192</v>
@@ -4096,13 +4107,16 @@
         <v>97</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
         <v>312</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>186</v>
@@ -4137,13 +4151,16 @@
         <v>102</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G32" t="s">
         <v>192</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>89</v>
@@ -4225,13 +4242,16 @@
         <v>94</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
         <v>192</v>
       </c>
       <c r="H34" t="s">
         <v>312</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>159</v>
@@ -4251,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
         <v>192</v>
@@ -4280,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>312</v>
@@ -4348,7 +4368,7 @@
         <v>214</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G37" t="s">
         <v>7</v>
@@ -4457,7 +4477,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
